--- a/static/Models/Classification/Equation/Commodities.xlsx
+++ b/static/Models/Classification/Equation/Commodities.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>2.565208435058594</v>
+        <v>2.071498394012451</v>
       </c>
       <c r="C2">
-        <v>-2.706067323684692</v>
+        <v>-3.635828495025635</v>
       </c>
       <c r="D2">
-        <v>-7.249690055847168</v>
+        <v>-7.421627521514893</v>
       </c>
       <c r="E2">
-        <v>-1.999707818031311</v>
+        <v>-2.602632761001587</v>
       </c>
       <c r="F2">
-        <v>0.3521378934383392</v>
+        <v>-0.05510136857628822</v>
       </c>
       <c r="G2">
-        <v>-1.980428218841553</v>
+        <v>-1.705039620399475</v>
       </c>
       <c r="H2">
-        <v>-1.730659484863281</v>
+        <v>-2.475464582443237</v>
       </c>
       <c r="I2">
-        <v>1.875992774963379</v>
+        <v>1.784066796302795</v>
       </c>
       <c r="J2">
-        <v>-0.7756444215774536</v>
+        <v>-0.853299081325531</v>
       </c>
       <c r="K2">
-        <v>1.219249129295349</v>
+        <v>2.332849502563477</v>
       </c>
       <c r="L2">
-        <v>-2.441328525543213</v>
+        <v>-1.72430694103241</v>
       </c>
       <c r="M2">
-        <v>-0.8651744723320007</v>
+        <v>-1.736689805984497</v>
       </c>
       <c r="N2">
-        <v>-1.305969715118408</v>
+        <v>-0.5169298052787781</v>
       </c>
       <c r="O2">
-        <v>-1.985343098640442</v>
+        <v>-1.306803941726685</v>
       </c>
       <c r="P2">
-        <v>2.899053812026978</v>
+        <v>2.527218818664551</v>
       </c>
       <c r="Q2">
-        <v>11.19362354278564</v>
+        <v>10.14569091796875</v>
       </c>
       <c r="R2">
-        <v>1.675172090530396</v>
+        <v>2.308690547943115</v>
       </c>
       <c r="S2">
-        <v>-11.42581081390381</v>
+        <v>-11.28589057922363</v>
       </c>
       <c r="T2">
-        <v>-2.293850660324097</v>
+        <v>-1.859906435012817</v>
       </c>
       <c r="U2">
-        <v>-12.83386611938477</v>
+        <v>-12.26561641693115</v>
       </c>
       <c r="V2">
-        <v>-3.909276485443115</v>
+        <v>-4.039090156555176</v>
       </c>
       <c r="W2">
-        <v>-3.447566509246826</v>
+        <v>-3.960358858108521</v>
       </c>
       <c r="X2">
-        <v>-0.2670620679855347</v>
+        <v>0.120556466281414</v>
       </c>
       <c r="Y2">
-        <v>-0.5761117935180664</v>
+        <v>-1.554218053817749</v>
       </c>
       <c r="Z2">
-        <v>-19.75802421569824</v>
+        <v>-20.14176940917969</v>
       </c>
       <c r="AA2">
-        <v>-1.426755428314209</v>
+        <v>-1.311750173568726</v>
       </c>
       <c r="AB2">
-        <v>-8.096346855163574</v>
+        <v>-8.605637550354004</v>
       </c>
       <c r="AC2">
-        <v>-13.13525485992432</v>
+        <v>-13.9019603729248</v>
       </c>
       <c r="AD2">
-        <v>-1.595906376838684</v>
+        <v>-1.270136475563049</v>
       </c>
       <c r="AE2">
-        <v>7.27701473236084</v>
+        <v>7.366297245025635</v>
       </c>
       <c r="AF2">
-        <v>-1.674782276153564</v>
+        <v>-2.60948657989502</v>
       </c>
       <c r="AG2">
-        <v>-23.70831108093262</v>
+        <v>-24.47551345825195</v>
       </c>
       <c r="AH2">
-        <v>-18.38615036010742</v>
+        <v>-19.15632438659668</v>
       </c>
       <c r="AI2">
-        <v>-7.528123378753662</v>
+        <v>-7.346016883850098</v>
       </c>
       <c r="AJ2">
-        <v>1.868095278739929</v>
+        <v>1.142531871795654</v>
       </c>
       <c r="AK2">
-        <v>-1.706735014915466</v>
+        <v>-0.8120933771133423</v>
       </c>
       <c r="AL2">
-        <v>2.502487421035767</v>
+        <v>2.318453550338745</v>
       </c>
       <c r="AM2">
-        <v>-4.50900936126709</v>
+        <v>-4.510339260101318</v>
       </c>
       <c r="AN2">
-        <v>-7.847460269927979</v>
+        <v>-7.524365901947021</v>
       </c>
       <c r="AO2">
-        <v>-0.07108205556869507</v>
+        <v>0.3444260656833649</v>
       </c>
       <c r="AP2">
-        <v>-9.996447563171387</v>
+        <v>-10.39305591583252</v>
       </c>
       <c r="AQ2">
-        <v>0.8587667346000671</v>
+        <v>0.1391172558069229</v>
       </c>
       <c r="AR2">
-        <v>-0.8961199522018433</v>
+        <v>-0.8220523595809937</v>
       </c>
       <c r="AS2">
-        <v>-7.33171558380127</v>
+        <v>-6.783701419830322</v>
       </c>
       <c r="AT2">
-        <v>1.98652195930481</v>
+        <v>2.758270263671875</v>
       </c>
       <c r="AU2">
-        <v>2.195687294006348</v>
+        <v>1.87992262840271</v>
       </c>
       <c r="AV2">
-        <v>3.349966764450073</v>
+        <v>3.586288213729858</v>
       </c>
       <c r="AW2">
-        <v>-5.788381099700928</v>
+        <v>-6.160452842712402</v>
       </c>
       <c r="AX2">
-        <v>4.567199230194092</v>
+        <v>3.904471874237061</v>
       </c>
       <c r="AY2">
-        <v>0.4128772914409637</v>
+        <v>-0.2048391401767731</v>
       </c>
       <c r="AZ2">
-        <v>-1.820735692977905</v>
+        <v>-2.829884767532349</v>
       </c>
       <c r="BA2">
-        <v>9.147214889526367</v>
+        <v>9.594903945922852</v>
       </c>
       <c r="BB2">
-        <v>0.6517749428749084</v>
+        <v>-0.07900009304285049</v>
       </c>
       <c r="BC2">
-        <v>0.1978002786636353</v>
+        <v>-0.6629753112792969</v>
       </c>
       <c r="BD2">
-        <v>-1.399055480957031</v>
+        <v>-1.200499653816223</v>
       </c>
       <c r="BE2">
-        <v>-2.720961570739746</v>
+        <v>-1.843354225158691</v>
       </c>
       <c r="BF2">
-        <v>-23.85133171081543</v>
+        <v>-24.85189247131348</v>
       </c>
       <c r="BG2">
-        <v>-0.770197868347168</v>
+        <v>-0.7109138965606689</v>
       </c>
       <c r="BH2">
-        <v>0.6087059378623962</v>
+        <v>1.399152398109436</v>
       </c>
       <c r="BI2">
-        <v>12.36371803283691</v>
+        <v>12.46857070922852</v>
       </c>
       <c r="BJ2">
-        <v>-3.577507734298706</v>
+        <v>-4.349167823791504</v>
       </c>
       <c r="BK2">
-        <v>0.466124564409256</v>
+        <v>-0.518360435962677</v>
       </c>
       <c r="BL2">
-        <v>3.831866979598999</v>
+        <v>3.558441162109375</v>
       </c>
       <c r="BM2">
-        <v>2.060515642166138</v>
+        <v>2.211737632751465</v>
       </c>
       <c r="BN2">
-        <v>0.1521621495485306</v>
+        <v>0.5930355787277222</v>
       </c>
       <c r="BO2">
-        <v>-2.046662330627441</v>
+        <v>-2.101999282836914</v>
       </c>
       <c r="BP2">
-        <v>-2.318927526473999</v>
+        <v>-2.423570871353149</v>
       </c>
       <c r="BQ2">
-        <v>-18.97973823547363</v>
+        <v>-18.31231117248535</v>
       </c>
       <c r="BR2">
-        <v>0.02364719472825527</v>
+        <v>1.007298707962036</v>
       </c>
       <c r="BS2">
-        <v>1.470562219619751</v>
+        <v>1.908651947975159</v>
       </c>
       <c r="BT2">
-        <v>-0.1225665882229805</v>
+        <v>0.7819986343383789</v>
       </c>
       <c r="BU2">
-        <v>-0.4923800230026245</v>
+        <v>0.08717832714319229</v>
       </c>
       <c r="BV2">
-        <v>-0.2312133759260178</v>
+        <v>-0.09272649884223938</v>
       </c>
       <c r="BW2">
-        <v>0.5733176469802856</v>
+        <v>-0.2353559285402298</v>
       </c>
       <c r="BX2">
-        <v>-11.30566692352295</v>
+        <v>-11.06840133666992</v>
       </c>
       <c r="BY2">
-        <v>-0.508442223072052</v>
+        <v>-1.178176045417786</v>
       </c>
       <c r="BZ2">
-        <v>1.573665022850037</v>
+        <v>1.121866464614868</v>
       </c>
       <c r="CA2">
-        <v>-13.54721832275391</v>
+        <v>-13.92710304260254</v>
       </c>
       <c r="CB2">
-        <v>-18.15367317199707</v>
+        <v>-17.71649742126465</v>
       </c>
       <c r="CC2">
-        <v>0.2701329290866852</v>
+        <v>0.2117680013179779</v>
       </c>
       <c r="CD2">
-        <v>-1.122859835624695</v>
+        <v>-0.4165488183498383</v>
       </c>
       <c r="CE2">
-        <v>-2.600317478179932</v>
+        <v>-2.258971691131592</v>
       </c>
       <c r="CF2">
-        <v>-16.83242988586426</v>
+        <v>-16.02975845336914</v>
       </c>
       <c r="CG2">
-        <v>-4.62982702255249</v>
+        <v>-3.93036150932312</v>
       </c>
       <c r="CH2">
-        <v>-22.42173004150391</v>
+        <v>-21.77497673034668</v>
       </c>
       <c r="CI2">
-        <v>-0.2383565902709961</v>
+        <v>-0.3758520781993866</v>
       </c>
       <c r="CJ2">
-        <v>-7.397575378417969</v>
+        <v>-8.171520233154297</v>
       </c>
       <c r="CK2">
-        <v>-2.165950298309326</v>
+        <v>-1.556242346763611</v>
       </c>
       <c r="CL2">
-        <v>-1.634182929992676</v>
+        <v>-1.482345223426819</v>
       </c>
       <c r="CM2">
-        <v>-5.58433723449707</v>
+        <v>-4.967206478118896</v>
       </c>
       <c r="CN2">
-        <v>1.306045651435852</v>
+        <v>1.445820689201355</v>
       </c>
       <c r="CO2">
-        <v>2.53432559967041</v>
+        <v>2.18878173828125</v>
       </c>
       <c r="CP2">
-        <v>9.579047203063965</v>
+        <v>9.112238883972168</v>
       </c>
       <c r="CQ2">
-        <v>-9.16041088104248</v>
+        <v>-8.538542747497559</v>
       </c>
       <c r="CR2">
-        <v>1.543468832969666</v>
+        <v>0.8965302109718323</v>
       </c>
       <c r="CS2">
-        <v>-0.6436852812767029</v>
+        <v>-0.2256601750850677</v>
       </c>
       <c r="CT2">
-        <v>-0.2321881651878357</v>
+        <v>-0.1838104128837585</v>
       </c>
       <c r="CU2">
-        <v>-0.3852594196796417</v>
+        <v>-0.6755244731903076</v>
       </c>
       <c r="CV2">
-        <v>0.2185376435518265</v>
+        <v>0.5055825114250183</v>
       </c>
       <c r="CW2">
-        <v>-6.271383762359619</v>
+        <v>-6.389484405517578</v>
       </c>
       <c r="CX2">
-        <v>-0.511716365814209</v>
+        <v>-0.7637181878089905</v>
       </c>
       <c r="CY2">
-        <v>-12.3881254196167</v>
+        <v>-12.71410465240479</v>
       </c>
       <c r="CZ2">
-        <v>0.166979193687439</v>
+        <v>-0.1062705367803574</v>
       </c>
       <c r="DA2">
-        <v>-1.579291462898254</v>
+        <v>-1.87438178062439</v>
       </c>
       <c r="DB2">
-        <v>-3.532711505889893</v>
+        <v>-3.924446582794189</v>
       </c>
       <c r="DC2">
-        <v>-1.981499791145325</v>
+        <v>-1.515992164611816</v>
       </c>
       <c r="DD2">
-        <v>-21.6695671081543</v>
+        <v>-21.47974395751953</v>
       </c>
       <c r="DE2">
-        <v>1.698113560676575</v>
+        <v>1.981998443603516</v>
       </c>
       <c r="DF2">
-        <v>9.201850891113281</v>
+        <v>9.063836097717285</v>
       </c>
       <c r="DG2">
-        <v>-1.39509129524231</v>
+        <v>-0.9918935298919678</v>
       </c>
       <c r="DH2">
-        <v>2.499291896820068</v>
+        <v>2.709010601043701</v>
       </c>
       <c r="DI2">
-        <v>1.080450057983398</v>
+        <v>0.8601505160331726</v>
       </c>
       <c r="DJ2">
-        <v>-15.84903144836426</v>
+        <v>-15.88771724700928</v>
       </c>
       <c r="DK2">
-        <v>-7.499606609344482</v>
+        <v>-7.382930755615234</v>
       </c>
       <c r="DL2">
-        <v>-8.529947280883789</v>
+        <v>-7.96467924118042</v>
       </c>
       <c r="DM2">
-        <v>4.993760585784912</v>
+        <v>4.415030002593994</v>
       </c>
       <c r="DN2">
-        <v>-0.6625887751579285</v>
+        <v>-0.5867913365364075</v>
       </c>
       <c r="DO2">
-        <v>-8.958797454833984</v>
+        <v>-8.914074897766113</v>
       </c>
       <c r="DP2">
-        <v>1.940642833709717</v>
+        <v>1.462681531906128</v>
       </c>
       <c r="DQ2">
-        <v>3.934984922409058</v>
+        <v>4.360041618347168</v>
       </c>
       <c r="DR2">
-        <v>-0.4106610417366028</v>
+        <v>0.1422903835773468</v>
       </c>
       <c r="DS2">
-        <v>-3.780219554901123</v>
+        <v>-4.741518497467041</v>
       </c>
       <c r="DT2">
-        <v>4.280536651611328</v>
+        <v>4.742388725280762</v>
       </c>
       <c r="DU2">
-        <v>-10.43994903564453</v>
+        <v>-9.837910652160645</v>
       </c>
       <c r="DV2">
-        <v>0.0385013073682785</v>
+        <v>1.003255248069763</v>
       </c>
       <c r="DW2">
-        <v>0.6589241623878479</v>
+        <v>-0.1330392360687256</v>
       </c>
       <c r="DX2">
-        <v>-0.2037063091993332</v>
+        <v>-0.2042926698923111</v>
       </c>
       <c r="DY2">
-        <v>2.833334684371948</v>
+        <v>1.992984175682068</v>
       </c>
       <c r="DZ2">
-        <v>-4.412914276123047</v>
+        <v>-4.064433097839355</v>
       </c>
       <c r="EA2">
-        <v>0.2887820601463318</v>
+        <v>-0.4568302631378174</v>
       </c>
       <c r="EB2">
-        <v>-0.7440975308418274</v>
+        <v>-0.6582123041152954</v>
       </c>
       <c r="EC2">
-        <v>1.127353549003601</v>
+        <v>0.6289670467376709</v>
       </c>
       <c r="ED2">
-        <v>-4.125192165374756</v>
+        <v>-3.665426254272461</v>
       </c>
       <c r="EE2">
-        <v>1.657713651657104</v>
+        <v>1.704086899757385</v>
       </c>
       <c r="EF2">
-        <v>2.418111324310303</v>
+        <v>2.659885406494141</v>
       </c>
       <c r="EG2">
-        <v>10.25222682952881</v>
+        <v>10.28465938568115</v>
       </c>
       <c r="EH2">
-        <v>-5.859580516815186</v>
+        <v>-5.406848907470703</v>
       </c>
       <c r="EI2">
-        <v>-1.775273084640503</v>
+        <v>-2.442469596862793</v>
       </c>
       <c r="EJ2">
-        <v>-3.113203763961792</v>
+        <v>-3.065678119659424</v>
       </c>
       <c r="EK2">
-        <v>-0.808178186416626</v>
+        <v>-0.8607296943664551</v>
       </c>
       <c r="EL2">
-        <v>-2.646644592285156</v>
+        <v>-2.1038498878479</v>
       </c>
       <c r="EM2">
-        <v>-6.55186128616333</v>
+        <v>-7.129470825195312</v>
       </c>
       <c r="EN2">
-        <v>-7.375833034515381</v>
+        <v>-7.258795261383057</v>
       </c>
       <c r="EO2">
-        <v>1.51235830783844</v>
+        <v>2.056013822555542</v>
       </c>
       <c r="EP2">
-        <v>-4.331359386444092</v>
+        <v>-4.730705261230469</v>
       </c>
       <c r="EQ2">
-        <v>-13.48909282684326</v>
+        <v>-13.01989650726318</v>
       </c>
       <c r="ER2">
-        <v>0.3679189085960388</v>
+        <v>1.204314708709717</v>
       </c>
       <c r="ES2">
-        <v>-8.500107765197754</v>
+        <v>-8.094614028930664</v>
       </c>
       <c r="ET2">
-        <v>-3.302321195602417</v>
+        <v>-3.352404594421387</v>
       </c>
       <c r="EU2">
-        <v>-9.300721168518066</v>
+        <v>-9.027652740478516</v>
       </c>
       <c r="EV2">
-        <v>-4.800837516784668</v>
+        <v>-4.456589698791504</v>
       </c>
       <c r="EW2">
-        <v>-3.028547525405884</v>
+        <v>-3.296071529388428</v>
       </c>
       <c r="EX2">
-        <v>-6.052905559539795</v>
+        <v>-6.637619495391846</v>
       </c>
       <c r="EY2">
-        <v>1.487460851669312</v>
+        <v>2.018193960189819</v>
       </c>
       <c r="EZ2">
-        <v>0.5139402151107788</v>
+        <v>-0.3829569518566132</v>
       </c>
       <c r="FA2">
-        <v>1.210863947868347</v>
+        <v>1.635839581489563</v>
       </c>
       <c r="FB2">
-        <v>2.387556076049805</v>
+        <v>2.793997287750244</v>
       </c>
       <c r="FC2">
-        <v>-7.420269966125488</v>
+        <v>-7.377716064453125</v>
       </c>
       <c r="FD2">
-        <v>1.359116911888123</v>
+        <v>1.121666073799133</v>
       </c>
       <c r="FE2">
-        <v>5.621297836303711</v>
+        <v>4.813447952270508</v>
       </c>
       <c r="FF2">
-        <v>-22.03564453125</v>
+        <v>-22.22890281677246</v>
       </c>
       <c r="FG2">
-        <v>-6.212625980377197</v>
+        <v>-5.781391143798828</v>
       </c>
       <c r="FH2">
-        <v>2.857206106185913</v>
+        <v>1.902441501617432</v>
       </c>
       <c r="FI2">
-        <v>-2.484863042831421</v>
+        <v>-3.270507335662842</v>
       </c>
       <c r="FJ2">
-        <v>8.886377334594727</v>
+        <v>8.950063705444336</v>
       </c>
       <c r="FK2">
-        <v>3.608831882476807</v>
+        <v>3.227315664291382</v>
       </c>
       <c r="FL2">
-        <v>-3.650581121444702</v>
+        <v>-4.509834289550781</v>
       </c>
       <c r="FM2">
-        <v>4.325194835662842</v>
+        <v>3.750028848648071</v>
       </c>
       <c r="FN2">
-        <v>12.62156009674072</v>
+        <v>12.52028179168701</v>
       </c>
       <c r="FO2">
-        <v>-0.9270486831665039</v>
+        <v>-0.7939123511314392</v>
       </c>
       <c r="FP2">
-        <v>3.282370090484619</v>
+        <v>3.170722723007202</v>
       </c>
       <c r="FQ2">
-        <v>-1.336445331573486</v>
+        <v>-1.102902770042419</v>
       </c>
       <c r="FR2">
-        <v>-0.1372803449630737</v>
+        <v>0.3273970782756805</v>
       </c>
       <c r="FS2">
-        <v>2.55057168006897</v>
+        <v>2.738582611083984</v>
       </c>
       <c r="FT2">
-        <v>0.7476945519447327</v>
+        <v>0.2481603622436523</v>
       </c>
       <c r="FU2">
-        <v>-3.863706827163696</v>
+        <v>-3.258338212966919</v>
       </c>
       <c r="FV2">
-        <v>-0.5090928673744202</v>
+        <v>0.09248708933591843</v>
       </c>
       <c r="FW2">
-        <v>7.984184741973877</v>
+        <v>8.15877628326416</v>
       </c>
       <c r="FX2">
-        <v>0.5529747009277344</v>
+        <v>-0.5564496517181396</v>
       </c>
       <c r="FY2">
-        <v>-0.5170696973800659</v>
+        <v>-0.8789775371551514</v>
       </c>
       <c r="FZ2">
-        <v>-0.1933065056800842</v>
+        <v>-0.5847328901290894</v>
       </c>
       <c r="GA2">
-        <v>-5.244516849517822</v>
+        <v>-6.119479179382324</v>
       </c>
       <c r="GB2">
-        <v>-0.8656675219535828</v>
+        <v>-0.3793744742870331</v>
       </c>
       <c r="GC2">
-        <v>-7.344234943389893</v>
+        <v>-7.07988166809082</v>
       </c>
       <c r="GD2">
-        <v>-5.034500598907471</v>
+        <v>-4.669331550598145</v>
       </c>
       <c r="GE2">
-        <v>-0.1190214157104492</v>
+        <v>0.4228783845901489</v>
       </c>
       <c r="GF2">
-        <v>-1.779387950897217</v>
+        <v>-1.257039666175842</v>
       </c>
       <c r="GG2">
-        <v>-10.395263671875</v>
+        <v>-10.06344890594482</v>
       </c>
       <c r="GH2">
-        <v>2.364940404891968</v>
+        <v>1.948966503143311</v>
       </c>
       <c r="GI2">
-        <v>-0.3281354606151581</v>
+        <v>-0.8591876029968262</v>
       </c>
       <c r="GJ2">
-        <v>-0.2707505226135254</v>
+        <v>-0.9748414754867554</v>
       </c>
       <c r="GK2">
-        <v>-13.29519462585449</v>
+        <v>-13.3801155090332</v>
       </c>
       <c r="GL2">
-        <v>12.31504058837891</v>
+        <v>12.22127151489258</v>
       </c>
       <c r="GM2">
-        <v>-1.728403449058533</v>
+        <v>-1.872725367546082</v>
       </c>
       <c r="GN2">
-        <v>-1.894803524017334</v>
+        <v>-2.05039644241333</v>
       </c>
       <c r="GO2">
-        <v>-12.19043636322021</v>
+        <v>-12.37272071838379</v>
       </c>
       <c r="GP2">
-        <v>-0.4047302305698395</v>
+        <v>-0.2326058596372604</v>
       </c>
       <c r="GQ2">
-        <v>0.8796033263206482</v>
+        <v>1.517666697502136</v>
       </c>
       <c r="GR2">
-        <v>0.388874739408493</v>
+        <v>0.8752080798149109</v>
       </c>
       <c r="GS2">
-        <v>4.254321575164795</v>
+        <v>3.69033670425415</v>
       </c>
       <c r="GT2">
-        <v>1.321855068206787</v>
+        <v>2.18489670753479</v>
       </c>
       <c r="GU2">
-        <v>3.057928323745728</v>
+        <v>2.734880447387695</v>
       </c>
       <c r="GV2">
-        <v>-0.5271681547164917</v>
+        <v>-0.0410199910402298</v>
       </c>
       <c r="GW2">
-        <v>-2.38638973236084</v>
+        <v>-2.734480142593384</v>
       </c>
       <c r="GX2">
-        <v>-1.571788787841797</v>
+        <v>-1.254167795181274</v>
       </c>
       <c r="GY2">
-        <v>-1.968129515647888</v>
+        <v>-1.677771210670471</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Commodities.xlsx
+++ b/static/Models/Classification/Equation/Commodities.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>2.071498394012451</v>
+        <v>2.665780544281006</v>
       </c>
       <c r="C2">
-        <v>-3.635828495025635</v>
+        <v>-3.909600973129272</v>
       </c>
       <c r="D2">
-        <v>-7.421627521514893</v>
+        <v>-7.207866191864014</v>
       </c>
       <c r="E2">
-        <v>-2.602632761001587</v>
+        <v>-2.501367330551147</v>
       </c>
       <c r="F2">
-        <v>-0.05510136857628822</v>
+        <v>0.2635397911071777</v>
       </c>
       <c r="G2">
-        <v>-1.705039620399475</v>
+        <v>-2.868881702423096</v>
       </c>
       <c r="H2">
-        <v>-2.475464582443237</v>
+        <v>-2.067396640777588</v>
       </c>
       <c r="I2">
-        <v>1.784066796302795</v>
+        <v>1.6080561876297</v>
       </c>
       <c r="J2">
-        <v>-0.853299081325531</v>
+        <v>0.1390113979578018</v>
       </c>
       <c r="K2">
-        <v>2.332849502563477</v>
+        <v>2.229678630828857</v>
       </c>
       <c r="L2">
-        <v>-1.72430694103241</v>
+        <v>-2.472439765930176</v>
       </c>
       <c r="M2">
-        <v>-1.736689805984497</v>
+        <v>-0.9022809267044067</v>
       </c>
       <c r="N2">
-        <v>-0.5169298052787781</v>
+        <v>-0.05034461989998817</v>
       </c>
       <c r="O2">
-        <v>-1.306803941726685</v>
+        <v>-1.630516648292542</v>
       </c>
       <c r="P2">
-        <v>2.527218818664551</v>
+        <v>2.240088224411011</v>
       </c>
       <c r="Q2">
-        <v>10.14569091796875</v>
+        <v>10.0246057510376</v>
       </c>
       <c r="R2">
-        <v>2.308690547943115</v>
+        <v>1.548937678337097</v>
       </c>
       <c r="S2">
-        <v>-11.28589057922363</v>
+        <v>-10.32838821411133</v>
       </c>
       <c r="T2">
-        <v>-1.859906435012817</v>
+        <v>-2.019512414932251</v>
       </c>
       <c r="U2">
-        <v>-12.26561641693115</v>
+        <v>-11.63637924194336</v>
       </c>
       <c r="V2">
-        <v>-4.039090156555176</v>
+        <v>-4.475936412811279</v>
       </c>
       <c r="W2">
-        <v>-3.960358858108521</v>
+        <v>-4.697521686553955</v>
       </c>
       <c r="X2">
-        <v>0.120556466281414</v>
+        <v>-0.01474092155694962</v>
       </c>
       <c r="Y2">
-        <v>-1.554218053817749</v>
+        <v>-1.865962505340576</v>
       </c>
       <c r="Z2">
-        <v>-20.14176940917969</v>
+        <v>-20.94069480895996</v>
       </c>
       <c r="AA2">
-        <v>-1.311750173568726</v>
+        <v>-2.082200050354004</v>
       </c>
       <c r="AB2">
-        <v>-8.605637550354004</v>
+        <v>-8.25336742401123</v>
       </c>
       <c r="AC2">
-        <v>-13.9019603729248</v>
+        <v>-13.40653610229492</v>
       </c>
       <c r="AD2">
-        <v>-1.270136475563049</v>
+        <v>-1.692304730415344</v>
       </c>
       <c r="AE2">
-        <v>7.366297245025635</v>
+        <v>7.090771198272705</v>
       </c>
       <c r="AF2">
-        <v>-2.60948657989502</v>
+        <v>-1.861459612846375</v>
       </c>
       <c r="AG2">
-        <v>-24.47551345825195</v>
+        <v>-23.71338081359863</v>
       </c>
       <c r="AH2">
-        <v>-19.15632438659668</v>
+        <v>-18.2868480682373</v>
       </c>
       <c r="AI2">
-        <v>-7.346016883850098</v>
+        <v>-7.384750843048096</v>
       </c>
       <c r="AJ2">
-        <v>1.142531871795654</v>
+        <v>1.973770618438721</v>
       </c>
       <c r="AK2">
-        <v>-0.8120933771133423</v>
+        <v>-1.397792816162109</v>
       </c>
       <c r="AL2">
-        <v>2.318453550338745</v>
+        <v>1.514178395271301</v>
       </c>
       <c r="AM2">
-        <v>-4.510339260101318</v>
+        <v>-4.655546188354492</v>
       </c>
       <c r="AN2">
-        <v>-7.524365901947021</v>
+        <v>-6.958483219146729</v>
       </c>
       <c r="AO2">
-        <v>0.3444260656833649</v>
+        <v>0.1201275885105133</v>
       </c>
       <c r="AP2">
-        <v>-10.39305591583252</v>
+        <v>-9.443936347961426</v>
       </c>
       <c r="AQ2">
-        <v>0.1391172558069229</v>
+        <v>0.3696595728397369</v>
       </c>
       <c r="AR2">
-        <v>-0.8220523595809937</v>
+        <v>-1.144493460655212</v>
       </c>
       <c r="AS2">
-        <v>-6.783701419830322</v>
+        <v>-6.177473068237305</v>
       </c>
       <c r="AT2">
-        <v>2.758270263671875</v>
+        <v>3.484522819519043</v>
       </c>
       <c r="AU2">
-        <v>1.87992262840271</v>
+        <v>1.065287470817566</v>
       </c>
       <c r="AV2">
-        <v>3.586288213729858</v>
+        <v>4.526461601257324</v>
       </c>
       <c r="AW2">
-        <v>-6.160452842712402</v>
+        <v>-6.567856311798096</v>
       </c>
       <c r="AX2">
-        <v>3.904471874237061</v>
+        <v>4.120934963226318</v>
       </c>
       <c r="AY2">
-        <v>-0.2048391401767731</v>
+        <v>0.505822479724884</v>
       </c>
       <c r="AZ2">
-        <v>-2.829884767532349</v>
+        <v>-2.289513349533081</v>
       </c>
       <c r="BA2">
-        <v>9.594903945922852</v>
+        <v>9.147310256958008</v>
       </c>
       <c r="BB2">
-        <v>-0.07900009304285049</v>
+        <v>-0.3456180691719055</v>
       </c>
       <c r="BC2">
-        <v>-0.6629753112792969</v>
+        <v>-0.9437082409858704</v>
       </c>
       <c r="BD2">
-        <v>-1.200499653816223</v>
+        <v>-1.651249170303345</v>
       </c>
       <c r="BE2">
-        <v>-1.843354225158691</v>
+        <v>-1.364952802658081</v>
       </c>
       <c r="BF2">
-        <v>-24.85189247131348</v>
+        <v>-25.14031410217285</v>
       </c>
       <c r="BG2">
-        <v>-0.7109138965606689</v>
+        <v>-1.192285537719727</v>
       </c>
       <c r="BH2">
-        <v>1.399152398109436</v>
+        <v>0.6771021485328674</v>
       </c>
       <c r="BI2">
-        <v>12.46857070922852</v>
+        <v>12.53085231781006</v>
       </c>
       <c r="BJ2">
-        <v>-4.349167823791504</v>
+        <v>-3.57320499420166</v>
       </c>
       <c r="BK2">
-        <v>-0.518360435962677</v>
+        <v>0.003825264051556587</v>
       </c>
       <c r="BL2">
-        <v>3.558441162109375</v>
+        <v>4.179108619689941</v>
       </c>
       <c r="BM2">
-        <v>2.211737632751465</v>
+        <v>2.969692468643188</v>
       </c>
       <c r="BN2">
-        <v>0.5930355787277222</v>
+        <v>0.9603722095489502</v>
       </c>
       <c r="BO2">
-        <v>-2.101999282836914</v>
+        <v>-3.07166051864624</v>
       </c>
       <c r="BP2">
-        <v>-2.423570871353149</v>
+        <v>-2.5420081615448</v>
       </c>
       <c r="BQ2">
-        <v>-18.31231117248535</v>
+        <v>-18.33108520507812</v>
       </c>
       <c r="BR2">
-        <v>1.007298707962036</v>
+        <v>1.358249545097351</v>
       </c>
       <c r="BS2">
-        <v>1.908651947975159</v>
+        <v>1.994494557380676</v>
       </c>
       <c r="BT2">
-        <v>0.7819986343383789</v>
+        <v>0.07392334192991257</v>
       </c>
       <c r="BU2">
-        <v>0.08717832714319229</v>
+        <v>-0.2779369354248047</v>
       </c>
       <c r="BV2">
-        <v>-0.09272649884223938</v>
+        <v>-1.269206881523132</v>
       </c>
       <c r="BW2">
-        <v>-0.2353559285402298</v>
+        <v>-0.06144635751843452</v>
       </c>
       <c r="BX2">
-        <v>-11.06840133666992</v>
+        <v>-10.17956066131592</v>
       </c>
       <c r="BY2">
-        <v>-1.178176045417786</v>
+        <v>-0.7827566266059875</v>
       </c>
       <c r="BZ2">
-        <v>1.121866464614868</v>
+        <v>1.876433968544006</v>
       </c>
       <c r="CA2">
-        <v>-13.92710304260254</v>
+        <v>-14.7546272277832</v>
       </c>
       <c r="CB2">
-        <v>-17.71649742126465</v>
+        <v>-17.21786308288574</v>
       </c>
       <c r="CC2">
-        <v>0.2117680013179779</v>
+        <v>-0.1180343702435493</v>
       </c>
       <c r="CD2">
-        <v>-0.4165488183498383</v>
+        <v>0.1265111863613129</v>
       </c>
       <c r="CE2">
-        <v>-2.258971691131592</v>
+        <v>-2.34975790977478</v>
       </c>
       <c r="CF2">
-        <v>-16.02975845336914</v>
+        <v>-16.51621246337891</v>
       </c>
       <c r="CG2">
-        <v>-3.93036150932312</v>
+        <v>-4.381032943725586</v>
       </c>
       <c r="CH2">
-        <v>-21.77497673034668</v>
+        <v>-20.9420337677002</v>
       </c>
       <c r="CI2">
-        <v>-0.3758520781993866</v>
+        <v>-1.042354702949524</v>
       </c>
       <c r="CJ2">
-        <v>-8.171520233154297</v>
+        <v>-8.538022041320801</v>
       </c>
       <c r="CK2">
-        <v>-1.556242346763611</v>
+        <v>-1.82276725769043</v>
       </c>
       <c r="CL2">
-        <v>-1.482345223426819</v>
+        <v>-1.620204448699951</v>
       </c>
       <c r="CM2">
-        <v>-4.967206478118896</v>
+        <v>-5.30854606628418</v>
       </c>
       <c r="CN2">
-        <v>1.445820689201355</v>
+        <v>1.992925763130188</v>
       </c>
       <c r="CO2">
-        <v>2.18878173828125</v>
+        <v>1.653579950332642</v>
       </c>
       <c r="CP2">
-        <v>9.112238883972168</v>
+        <v>8.734746932983398</v>
       </c>
       <c r="CQ2">
-        <v>-8.538542747497559</v>
+        <v>-8.748377799987793</v>
       </c>
       <c r="CR2">
-        <v>0.8965302109718323</v>
+        <v>1.814224720001221</v>
       </c>
       <c r="CS2">
-        <v>-0.2256601750850677</v>
+        <v>-0.8320938944816589</v>
       </c>
       <c r="CT2">
-        <v>-0.1838104128837585</v>
+        <v>-0.4791489541530609</v>
       </c>
       <c r="CU2">
-        <v>-0.6755244731903076</v>
+        <v>-0.5107297897338867</v>
       </c>
       <c r="CV2">
-        <v>0.5055825114250183</v>
+        <v>0.3508104085922241</v>
       </c>
       <c r="CW2">
-        <v>-6.389484405517578</v>
+        <v>-5.921789169311523</v>
       </c>
       <c r="CX2">
-        <v>-0.7637181878089905</v>
+        <v>-0.3798433542251587</v>
       </c>
       <c r="CY2">
-        <v>-12.71410465240479</v>
+        <v>-13.31259250640869</v>
       </c>
       <c r="CZ2">
-        <v>-0.1062705367803574</v>
+        <v>-0.538924515247345</v>
       </c>
       <c r="DA2">
-        <v>-1.87438178062439</v>
+        <v>-2.707819223403931</v>
       </c>
       <c r="DB2">
-        <v>-3.924446582794189</v>
+        <v>-3.134194850921631</v>
       </c>
       <c r="DC2">
-        <v>-1.515992164611816</v>
+        <v>-0.8207946419715881</v>
       </c>
       <c r="DD2">
-        <v>-21.47974395751953</v>
+        <v>-20.64500617980957</v>
       </c>
       <c r="DE2">
-        <v>1.981998443603516</v>
+        <v>1.306764602661133</v>
       </c>
       <c r="DF2">
-        <v>9.063836097717285</v>
+        <v>9.761080741882324</v>
       </c>
       <c r="DG2">
-        <v>-0.9918935298919678</v>
+        <v>-1.117530226707458</v>
       </c>
       <c r="DH2">
-        <v>2.709010601043701</v>
+        <v>1.776196241378784</v>
       </c>
       <c r="DI2">
-        <v>0.8601505160331726</v>
+        <v>0.0233213547617197</v>
       </c>
       <c r="DJ2">
-        <v>-15.88771724700928</v>
+        <v>-15.87266826629639</v>
       </c>
       <c r="DK2">
-        <v>-7.382930755615234</v>
+        <v>-8.609557151794434</v>
       </c>
       <c r="DL2">
-        <v>-7.96467924118042</v>
+        <v>-8.05859375</v>
       </c>
       <c r="DM2">
-        <v>4.415030002593994</v>
+        <v>4.675014495849609</v>
       </c>
       <c r="DN2">
-        <v>-0.5867913365364075</v>
+        <v>-1.053465843200684</v>
       </c>
       <c r="DO2">
-        <v>-8.914074897766113</v>
+        <v>-9.067972183227539</v>
       </c>
       <c r="DP2">
-        <v>1.462681531906128</v>
+        <v>1.954326987266541</v>
       </c>
       <c r="DQ2">
-        <v>4.360041618347168</v>
+        <v>3.871558666229248</v>
       </c>
       <c r="DR2">
-        <v>0.1422903835773468</v>
+        <v>0.07119406014680862</v>
       </c>
       <c r="DS2">
-        <v>-4.741518497467041</v>
+        <v>-4.277753829956055</v>
       </c>
       <c r="DT2">
-        <v>4.742388725280762</v>
+        <v>4.929619789123535</v>
       </c>
       <c r="DU2">
-        <v>-9.837910652160645</v>
+        <v>-9.492040634155273</v>
       </c>
       <c r="DV2">
-        <v>1.003255248069763</v>
+        <v>0.6452479958534241</v>
       </c>
       <c r="DW2">
-        <v>-0.1330392360687256</v>
+        <v>-0.3983988463878632</v>
       </c>
       <c r="DX2">
-        <v>-0.2042926698923111</v>
+        <v>-0.6915919184684753</v>
       </c>
       <c r="DY2">
-        <v>1.992984175682068</v>
+        <v>2.165228128433228</v>
       </c>
       <c r="DZ2">
-        <v>-4.064433097839355</v>
+        <v>-3.647844314575195</v>
       </c>
       <c r="EA2">
-        <v>-0.4568302631378174</v>
+        <v>-0.9576054215431213</v>
       </c>
       <c r="EB2">
-        <v>-0.6582123041152954</v>
+        <v>-1.101632952690125</v>
       </c>
       <c r="EC2">
-        <v>0.6289670467376709</v>
+        <v>-0.2523647844791412</v>
       </c>
       <c r="ED2">
-        <v>-3.665426254272461</v>
+        <v>-3.611693859100342</v>
       </c>
       <c r="EE2">
-        <v>1.704086899757385</v>
+        <v>1.182837128639221</v>
       </c>
       <c r="EF2">
-        <v>2.659885406494141</v>
+        <v>1.898780822753906</v>
       </c>
       <c r="EG2">
-        <v>10.28465938568115</v>
+        <v>10.29361248016357</v>
       </c>
       <c r="EH2">
-        <v>-5.406848907470703</v>
+        <v>-5.567202568054199</v>
       </c>
       <c r="EI2">
-        <v>-2.442469596862793</v>
+        <v>-1.986134052276611</v>
       </c>
       <c r="EJ2">
-        <v>-3.065678119659424</v>
+        <v>-3.302155733108521</v>
       </c>
       <c r="EK2">
-        <v>-0.8607296943664551</v>
+        <v>-0.6096165776252747</v>
       </c>
       <c r="EL2">
-        <v>-2.1038498878479</v>
+        <v>-2.264580488204956</v>
       </c>
       <c r="EM2">
-        <v>-7.129470825195312</v>
+        <v>-7.04328727722168</v>
       </c>
       <c r="EN2">
-        <v>-7.258795261383057</v>
+        <v>-7.218563556671143</v>
       </c>
       <c r="EO2">
-        <v>2.056013822555542</v>
+        <v>1.399516701698303</v>
       </c>
       <c r="EP2">
-        <v>-4.730705261230469</v>
+        <v>-5.13293981552124</v>
       </c>
       <c r="EQ2">
-        <v>-13.01989650726318</v>
+        <v>-13.86343860626221</v>
       </c>
       <c r="ER2">
-        <v>1.204314708709717</v>
+        <v>0.9586138129234314</v>
       </c>
       <c r="ES2">
-        <v>-8.094614028930664</v>
+        <v>-7.751662731170654</v>
       </c>
       <c r="ET2">
-        <v>-3.352404594421387</v>
+        <v>-3.666385650634766</v>
       </c>
       <c r="EU2">
-        <v>-9.027652740478516</v>
+        <v>-8.429945945739746</v>
       </c>
       <c r="EV2">
-        <v>-4.456589698791504</v>
+        <v>-4.019749641418457</v>
       </c>
       <c r="EW2">
-        <v>-3.296071529388428</v>
+        <v>-3.13697361946106</v>
       </c>
       <c r="EX2">
-        <v>-6.637619495391846</v>
+        <v>-7.303247928619385</v>
       </c>
       <c r="EY2">
-        <v>2.018193960189819</v>
+        <v>1.546432495117188</v>
       </c>
       <c r="EZ2">
-        <v>-0.3829569518566132</v>
+        <v>-0.2396920472383499</v>
       </c>
       <c r="FA2">
-        <v>1.635839581489563</v>
+        <v>1.330034613609314</v>
       </c>
       <c r="FB2">
-        <v>2.793997287750244</v>
+        <v>2.178464651107788</v>
       </c>
       <c r="FC2">
-        <v>-7.377716064453125</v>
+        <v>-8.212350845336914</v>
       </c>
       <c r="FD2">
-        <v>1.121666073799133</v>
+        <v>0.6529855728149414</v>
       </c>
       <c r="FE2">
-        <v>4.813447952270508</v>
+        <v>5.690391063690186</v>
       </c>
       <c r="FF2">
-        <v>-22.22890281677246</v>
+        <v>-21.32466506958008</v>
       </c>
       <c r="FG2">
-        <v>-5.781391143798828</v>
+        <v>-4.944358825683594</v>
       </c>
       <c r="FH2">
-        <v>1.902441501617432</v>
+        <v>2.129559755325317</v>
       </c>
       <c r="FI2">
-        <v>-3.270507335662842</v>
+        <v>-2.844051837921143</v>
       </c>
       <c r="FJ2">
-        <v>8.950063705444336</v>
+        <v>8.680707931518555</v>
       </c>
       <c r="FK2">
-        <v>3.227315664291382</v>
+        <v>2.703747272491455</v>
       </c>
       <c r="FL2">
-        <v>-4.509834289550781</v>
+        <v>-4.016122341156006</v>
       </c>
       <c r="FM2">
-        <v>3.750028848648071</v>
+        <v>2.512820959091187</v>
       </c>
       <c r="FN2">
-        <v>12.52028179168701</v>
+        <v>13.17008018493652</v>
       </c>
       <c r="FO2">
-        <v>-0.7939123511314392</v>
+        <v>-1.226069092750549</v>
       </c>
       <c r="FP2">
-        <v>3.170722723007202</v>
+        <v>3.666617393493652</v>
       </c>
       <c r="FQ2">
-        <v>-1.102902770042419</v>
+        <v>-1.613766193389893</v>
       </c>
       <c r="FR2">
-        <v>0.3273970782756805</v>
+        <v>-0.1860850602388382</v>
       </c>
       <c r="FS2">
-        <v>2.738582611083984</v>
+        <v>2.491997003555298</v>
       </c>
       <c r="FT2">
-        <v>0.2481603622436523</v>
+        <v>-0.2438759654760361</v>
       </c>
       <c r="FU2">
-        <v>-3.258338212966919</v>
+        <v>-2.924281597137451</v>
       </c>
       <c r="FV2">
-        <v>0.09248708933591843</v>
+        <v>-0.1362988501787186</v>
       </c>
       <c r="FW2">
-        <v>8.15877628326416</v>
+        <v>8.423480033874512</v>
       </c>
       <c r="FX2">
-        <v>-0.5564496517181396</v>
+        <v>-1.042394876480103</v>
       </c>
       <c r="FY2">
-        <v>-0.8789775371551514</v>
+        <v>-1.740713119506836</v>
       </c>
       <c r="FZ2">
-        <v>-0.5847328901290894</v>
+        <v>-1.385411620140076</v>
       </c>
       <c r="GA2">
-        <v>-6.119479179382324</v>
+        <v>-5.478911399841309</v>
       </c>
       <c r="GB2">
-        <v>-0.3793744742870331</v>
+        <v>0.1860038787126541</v>
       </c>
       <c r="GC2">
-        <v>-7.07988166809082</v>
+        <v>-7.555890560150146</v>
       </c>
       <c r="GD2">
-        <v>-4.669331550598145</v>
+        <v>-4.906118869781494</v>
       </c>
       <c r="GE2">
-        <v>0.4228783845901489</v>
+        <v>0.2761456668376923</v>
       </c>
       <c r="GF2">
-        <v>-1.257039666175842</v>
+        <v>-1.531649708747864</v>
       </c>
       <c r="GG2">
-        <v>-10.06344890594482</v>
+        <v>-9.57656192779541</v>
       </c>
       <c r="GH2">
-        <v>1.948966503143311</v>
+        <v>1.533677220344543</v>
       </c>
       <c r="GI2">
-        <v>-0.8591876029968262</v>
+        <v>-0.4769326746463776</v>
       </c>
       <c r="GJ2">
-        <v>-0.9748414754867554</v>
+        <v>-0.7591646313667297</v>
       </c>
       <c r="GK2">
-        <v>-13.3801155090332</v>
+        <v>-12.44766330718994</v>
       </c>
       <c r="GL2">
-        <v>12.22127151489258</v>
+        <v>11.80662250518799</v>
       </c>
       <c r="GM2">
-        <v>-1.872725367546082</v>
+        <v>-2.208166599273682</v>
       </c>
       <c r="GN2">
-        <v>-2.05039644241333</v>
+        <v>-1.362062573432922</v>
       </c>
       <c r="GO2">
-        <v>-12.37272071838379</v>
+        <v>-11.96343803405762</v>
       </c>
       <c r="GP2">
-        <v>-0.2326058596372604</v>
+        <v>-0.5333361029624939</v>
       </c>
       <c r="GQ2">
-        <v>1.517666697502136</v>
+        <v>2.354681491851807</v>
       </c>
       <c r="GR2">
-        <v>0.8752080798149109</v>
+        <v>0.1055291816592216</v>
       </c>
       <c r="GS2">
-        <v>3.69033670425415</v>
+        <v>3.278550624847412</v>
       </c>
       <c r="GT2">
-        <v>2.18489670753479</v>
+        <v>1.903839468955994</v>
       </c>
       <c r="GU2">
-        <v>2.734880447387695</v>
+        <v>2.665212869644165</v>
       </c>
       <c r="GV2">
-        <v>-0.0410199910402298</v>
+        <v>-0.249969556927681</v>
       </c>
       <c r="GW2">
-        <v>-2.734480142593384</v>
+        <v>-2.564123868942261</v>
       </c>
       <c r="GX2">
-        <v>-1.254167795181274</v>
+        <v>-1.488260269165039</v>
       </c>
       <c r="GY2">
-        <v>-1.677771210670471</v>
+        <v>-2.121741533279419</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Commodities.xlsx
+++ b/static/Models/Classification/Equation/Commodities.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>2.665780544281006</v>
+        <v>1.683920621871948</v>
       </c>
       <c r="C2">
-        <v>-3.909600973129272</v>
+        <v>-3.849543571472168</v>
       </c>
       <c r="D2">
-        <v>-7.207866191864014</v>
+        <v>-6.624460220336914</v>
       </c>
       <c r="E2">
-        <v>-2.501367330551147</v>
+        <v>-3.886380434036255</v>
       </c>
       <c r="F2">
-        <v>0.2635397911071777</v>
+        <v>0.28616863489151</v>
       </c>
       <c r="G2">
-        <v>-2.868881702423096</v>
+        <v>-3.751560926437378</v>
       </c>
       <c r="H2">
-        <v>-2.067396640777588</v>
+        <v>-1.948684811592102</v>
       </c>
       <c r="I2">
-        <v>1.6080561876297</v>
+        <v>1.913877367973328</v>
       </c>
       <c r="J2">
-        <v>0.1390113979578018</v>
+        <v>-0.09459558874368668</v>
       </c>
       <c r="K2">
-        <v>2.229678630828857</v>
+        <v>0.4416225254535675</v>
       </c>
       <c r="L2">
-        <v>-2.472439765930176</v>
+        <v>-1.967287659645081</v>
       </c>
       <c r="M2">
-        <v>-0.9022809267044067</v>
+        <v>-1.080209970474243</v>
       </c>
       <c r="N2">
-        <v>-0.05034461989998817</v>
+        <v>-0.311688631772995</v>
       </c>
       <c r="O2">
-        <v>-1.630516648292542</v>
+        <v>0.2854490578174591</v>
       </c>
       <c r="P2">
-        <v>2.240088224411011</v>
+        <v>1.626367568969727</v>
       </c>
       <c r="Q2">
-        <v>10.0246057510376</v>
+        <v>8.881263732910156</v>
       </c>
       <c r="R2">
-        <v>1.548937678337097</v>
+        <v>2.715090751647949</v>
       </c>
       <c r="S2">
-        <v>-10.32838821411133</v>
+        <v>-10.1646728515625</v>
       </c>
       <c r="T2">
-        <v>-2.019512414932251</v>
+        <v>-1.630105257034302</v>
       </c>
       <c r="U2">
-        <v>-11.63637924194336</v>
+        <v>-11.43263149261475</v>
       </c>
       <c r="V2">
-        <v>-4.475936412811279</v>
+        <v>-3.255995750427246</v>
       </c>
       <c r="W2">
-        <v>-4.697521686553955</v>
+        <v>-3.902117729187012</v>
       </c>
       <c r="X2">
-        <v>-0.01474092155694962</v>
+        <v>0.7345896363258362</v>
       </c>
       <c r="Y2">
-        <v>-1.865962505340576</v>
+        <v>-1.339077115058899</v>
       </c>
       <c r="Z2">
-        <v>-20.94069480895996</v>
+        <v>-22.07001876831055</v>
       </c>
       <c r="AA2">
-        <v>-2.082200050354004</v>
+        <v>-2.634275436401367</v>
       </c>
       <c r="AB2">
-        <v>-8.25336742401123</v>
+        <v>-8.781435966491699</v>
       </c>
       <c r="AC2">
-        <v>-13.40653610229492</v>
+        <v>-12.86699771881104</v>
       </c>
       <c r="AD2">
-        <v>-1.692304730415344</v>
+        <v>-1.364343523979187</v>
       </c>
       <c r="AE2">
-        <v>7.090771198272705</v>
+        <v>7.625101566314697</v>
       </c>
       <c r="AF2">
-        <v>-1.861459612846375</v>
+        <v>-1.620223045349121</v>
       </c>
       <c r="AG2">
-        <v>-23.71338081359863</v>
+        <v>-24.1014461517334</v>
       </c>
       <c r="AH2">
-        <v>-18.2868480682373</v>
+        <v>-19.30750274658203</v>
       </c>
       <c r="AI2">
-        <v>-7.384750843048096</v>
+        <v>-8.767626762390137</v>
       </c>
       <c r="AJ2">
-        <v>1.973770618438721</v>
+        <v>2.655776739120483</v>
       </c>
       <c r="AK2">
-        <v>-1.397792816162109</v>
+        <v>-2.094784736633301</v>
       </c>
       <c r="AL2">
-        <v>1.514178395271301</v>
+        <v>2.642977714538574</v>
       </c>
       <c r="AM2">
-        <v>-4.655546188354492</v>
+        <v>-4.569628715515137</v>
       </c>
       <c r="AN2">
-        <v>-6.958483219146729</v>
+        <v>-7.171313285827637</v>
       </c>
       <c r="AO2">
-        <v>0.1201275885105133</v>
+        <v>1.020174980163574</v>
       </c>
       <c r="AP2">
-        <v>-9.443936347961426</v>
+        <v>-9.878350257873535</v>
       </c>
       <c r="AQ2">
-        <v>0.3696595728397369</v>
+        <v>1.475658178329468</v>
       </c>
       <c r="AR2">
-        <v>-1.144493460655212</v>
+        <v>-0.959580659866333</v>
       </c>
       <c r="AS2">
-        <v>-6.177473068237305</v>
+        <v>-6.525753974914551</v>
       </c>
       <c r="AT2">
-        <v>3.484522819519043</v>
+        <v>4.879722118377686</v>
       </c>
       <c r="AU2">
-        <v>1.065287470817566</v>
+        <v>1.417820334434509</v>
       </c>
       <c r="AV2">
-        <v>4.526461601257324</v>
+        <v>3.523258924484253</v>
       </c>
       <c r="AW2">
-        <v>-6.567856311798096</v>
+        <v>-6.810033798217773</v>
       </c>
       <c r="AX2">
-        <v>4.120934963226318</v>
+        <v>4.396182060241699</v>
       </c>
       <c r="AY2">
-        <v>0.505822479724884</v>
+        <v>0.4632887244224548</v>
       </c>
       <c r="AZ2">
-        <v>-2.289513349533081</v>
+        <v>-3.382187604904175</v>
       </c>
       <c r="BA2">
-        <v>9.147310256958008</v>
+        <v>11.47365474700928</v>
       </c>
       <c r="BB2">
-        <v>-0.3456180691719055</v>
+        <v>0.2484576255083084</v>
       </c>
       <c r="BC2">
-        <v>-0.9437082409858704</v>
+        <v>-0.8534405827522278</v>
       </c>
       <c r="BD2">
-        <v>-1.651249170303345</v>
+        <v>-1.452399373054504</v>
       </c>
       <c r="BE2">
-        <v>-1.364952802658081</v>
+        <v>0.4999471008777618</v>
       </c>
       <c r="BF2">
-        <v>-25.14031410217285</v>
+        <v>-24.27164459228516</v>
       </c>
       <c r="BG2">
-        <v>-1.192285537719727</v>
+        <v>-0.9264119863510132</v>
       </c>
       <c r="BH2">
-        <v>0.6771021485328674</v>
+        <v>0.2809900343418121</v>
       </c>
       <c r="BI2">
-        <v>12.53085231781006</v>
+        <v>13.21849632263184</v>
       </c>
       <c r="BJ2">
-        <v>-3.57320499420166</v>
+        <v>-3.867674589157104</v>
       </c>
       <c r="BK2">
-        <v>0.003825264051556587</v>
+        <v>-1.059633851051331</v>
       </c>
       <c r="BL2">
-        <v>4.179108619689941</v>
+        <v>3.054135084152222</v>
       </c>
       <c r="BM2">
-        <v>2.969692468643188</v>
+        <v>3.820885181427002</v>
       </c>
       <c r="BN2">
-        <v>0.9603722095489502</v>
+        <v>0.09531740099191666</v>
       </c>
       <c r="BO2">
-        <v>-3.07166051864624</v>
+        <v>-3.028950929641724</v>
       </c>
       <c r="BP2">
-        <v>-2.5420081615448</v>
+        <v>-3.37870717048645</v>
       </c>
       <c r="BQ2">
-        <v>-18.33108520507812</v>
+        <v>-17.42675971984863</v>
       </c>
       <c r="BR2">
-        <v>1.358249545097351</v>
+        <v>0.1280615776777267</v>
       </c>
       <c r="BS2">
-        <v>1.994494557380676</v>
+        <v>0.5565459132194519</v>
       </c>
       <c r="BT2">
-        <v>0.07392334192991257</v>
+        <v>-0.5908728241920471</v>
       </c>
       <c r="BU2">
-        <v>-0.2779369354248047</v>
+        <v>0.09545238316059113</v>
       </c>
       <c r="BV2">
-        <v>-1.269206881523132</v>
+        <v>-2.022563219070435</v>
       </c>
       <c r="BW2">
-        <v>-0.06144635751843452</v>
+        <v>0.2935052812099457</v>
       </c>
       <c r="BX2">
-        <v>-10.17956066131592</v>
+        <v>-10.95133876800537</v>
       </c>
       <c r="BY2">
-        <v>-0.7827566266059875</v>
+        <v>-1.080816864967346</v>
       </c>
       <c r="BZ2">
-        <v>1.876433968544006</v>
+        <v>1.699560642242432</v>
       </c>
       <c r="CA2">
-        <v>-14.7546272277832</v>
+        <v>-14.83722591400146</v>
       </c>
       <c r="CB2">
-        <v>-17.21786308288574</v>
+        <v>-17.8358268737793</v>
       </c>
       <c r="CC2">
-        <v>-0.1180343702435493</v>
+        <v>0.04063470289111137</v>
       </c>
       <c r="CD2">
-        <v>0.1265111863613129</v>
+        <v>0.4598125815391541</v>
       </c>
       <c r="CE2">
-        <v>-2.34975790977478</v>
+        <v>-2.748660802841187</v>
       </c>
       <c r="CF2">
-        <v>-16.51621246337891</v>
+        <v>-17.2427921295166</v>
       </c>
       <c r="CG2">
-        <v>-4.381032943725586</v>
+        <v>-5.592837333679199</v>
       </c>
       <c r="CH2">
-        <v>-20.9420337677002</v>
+        <v>-21.76478576660156</v>
       </c>
       <c r="CI2">
-        <v>-1.042354702949524</v>
+        <v>-0.8249119520187378</v>
       </c>
       <c r="CJ2">
-        <v>-8.538022041320801</v>
+        <v>-7.334118366241455</v>
       </c>
       <c r="CK2">
-        <v>-1.82276725769043</v>
+        <v>-1.432182192802429</v>
       </c>
       <c r="CL2">
-        <v>-1.620204448699951</v>
+        <v>-1.562939167022705</v>
       </c>
       <c r="CM2">
-        <v>-5.30854606628418</v>
+        <v>-6.477938652038574</v>
       </c>
       <c r="CN2">
-        <v>1.992925763130188</v>
+        <v>1.716610193252563</v>
       </c>
       <c r="CO2">
-        <v>1.653579950332642</v>
+        <v>1.936529994010925</v>
       </c>
       <c r="CP2">
-        <v>8.734746932983398</v>
+        <v>7.846450805664062</v>
       </c>
       <c r="CQ2">
-        <v>-8.748377799987793</v>
+        <v>-6.236777782440186</v>
       </c>
       <c r="CR2">
-        <v>1.814224720001221</v>
+        <v>2.07047438621521</v>
       </c>
       <c r="CS2">
-        <v>-0.8320938944816589</v>
+        <v>-0.6529212594032288</v>
       </c>
       <c r="CT2">
-        <v>-0.4791489541530609</v>
+        <v>-0.3695984184741974</v>
       </c>
       <c r="CU2">
-        <v>-0.5107297897338867</v>
+        <v>-0.1033710837364197</v>
       </c>
       <c r="CV2">
-        <v>0.3508104085922241</v>
+        <v>-2.176656007766724</v>
       </c>
       <c r="CW2">
-        <v>-5.921789169311523</v>
+        <v>-5.217333793640137</v>
       </c>
       <c r="CX2">
-        <v>-0.3798433542251587</v>
+        <v>-0.5827668309211731</v>
       </c>
       <c r="CY2">
-        <v>-13.31259250640869</v>
+        <v>-13.48985767364502</v>
       </c>
       <c r="CZ2">
-        <v>-0.538924515247345</v>
+        <v>-1.057534456253052</v>
       </c>
       <c r="DA2">
-        <v>-2.707819223403931</v>
+        <v>-2.363910913467407</v>
       </c>
       <c r="DB2">
-        <v>-3.134194850921631</v>
+        <v>-3.314860343933105</v>
       </c>
       <c r="DC2">
-        <v>-0.8207946419715881</v>
+        <v>-1.898792386054993</v>
       </c>
       <c r="DD2">
-        <v>-20.64500617980957</v>
+        <v>-21.8518123626709</v>
       </c>
       <c r="DE2">
-        <v>1.306764602661133</v>
+        <v>1.521221280097961</v>
       </c>
       <c r="DF2">
-        <v>9.761080741882324</v>
+        <v>8.509853363037109</v>
       </c>
       <c r="DG2">
-        <v>-1.117530226707458</v>
+        <v>-0.01963552460074425</v>
       </c>
       <c r="DH2">
-        <v>1.776196241378784</v>
+        <v>1.121023893356323</v>
       </c>
       <c r="DI2">
-        <v>0.0233213547617197</v>
+        <v>-0.3421685993671417</v>
       </c>
       <c r="DJ2">
-        <v>-15.87266826629639</v>
+        <v>-15.16996669769287</v>
       </c>
       <c r="DK2">
-        <v>-8.609557151794434</v>
+        <v>-7.863249778747559</v>
       </c>
       <c r="DL2">
-        <v>-8.05859375</v>
+        <v>-7.852414131164551</v>
       </c>
       <c r="DM2">
-        <v>4.675014495849609</v>
+        <v>5.168268203735352</v>
       </c>
       <c r="DN2">
-        <v>-1.053465843200684</v>
+        <v>-0.9078556895256042</v>
       </c>
       <c r="DO2">
-        <v>-9.067972183227539</v>
+        <v>-7.874839305877686</v>
       </c>
       <c r="DP2">
-        <v>1.954326987266541</v>
+        <v>0.9210905432701111</v>
       </c>
       <c r="DQ2">
-        <v>3.871558666229248</v>
+        <v>3.878601551055908</v>
       </c>
       <c r="DR2">
-        <v>0.07119406014680862</v>
+        <v>-0.1543399542570114</v>
       </c>
       <c r="DS2">
-        <v>-4.277753829956055</v>
+        <v>-3.834190368652344</v>
       </c>
       <c r="DT2">
-        <v>4.929619789123535</v>
+        <v>4.032427787780762</v>
       </c>
       <c r="DU2">
-        <v>-9.492040634155273</v>
+        <v>-10.17134761810303</v>
       </c>
       <c r="DV2">
-        <v>0.6452479958534241</v>
+        <v>-0.2182899117469788</v>
       </c>
       <c r="DW2">
-        <v>-0.3983988463878632</v>
+        <v>-0.7503466010093689</v>
       </c>
       <c r="DX2">
-        <v>-0.6915919184684753</v>
+        <v>-0.4786462187767029</v>
       </c>
       <c r="DY2">
-        <v>2.165228128433228</v>
+        <v>3.725845098495483</v>
       </c>
       <c r="DZ2">
-        <v>-3.647844314575195</v>
+        <v>-1.659201264381409</v>
       </c>
       <c r="EA2">
-        <v>-0.9576054215431213</v>
+        <v>-1.318392157554626</v>
       </c>
       <c r="EB2">
-        <v>-1.101632952690125</v>
+        <v>-0.8740030527114868</v>
       </c>
       <c r="EC2">
-        <v>-0.2523647844791412</v>
+        <v>0.6107741594314575</v>
       </c>
       <c r="ED2">
-        <v>-3.611693859100342</v>
+        <v>-3.047804117202759</v>
       </c>
       <c r="EE2">
-        <v>1.182837128639221</v>
+        <v>1.399123191833496</v>
       </c>
       <c r="EF2">
-        <v>1.898780822753906</v>
+        <v>1.975831985473633</v>
       </c>
       <c r="EG2">
-        <v>10.29361248016357</v>
+        <v>10.2212553024292</v>
       </c>
       <c r="EH2">
-        <v>-5.567202568054199</v>
+        <v>-6.085093975067139</v>
       </c>
       <c r="EI2">
-        <v>-1.986134052276611</v>
+        <v>-1.711153745651245</v>
       </c>
       <c r="EJ2">
-        <v>-3.302155733108521</v>
+        <v>-4.313023567199707</v>
       </c>
       <c r="EK2">
-        <v>-0.6096165776252747</v>
+        <v>-0.6102556586265564</v>
       </c>
       <c r="EL2">
-        <v>-2.264580488204956</v>
+        <v>-1.526053428649902</v>
       </c>
       <c r="EM2">
-        <v>-7.04328727722168</v>
+        <v>-8.32090950012207</v>
       </c>
       <c r="EN2">
-        <v>-7.218563556671143</v>
+        <v>-8.651212692260742</v>
       </c>
       <c r="EO2">
-        <v>1.399516701698303</v>
+        <v>0.4697439074516296</v>
       </c>
       <c r="EP2">
-        <v>-5.13293981552124</v>
+        <v>-5.331837177276611</v>
       </c>
       <c r="EQ2">
-        <v>-13.86343860626221</v>
+        <v>-14.34963703155518</v>
       </c>
       <c r="ER2">
-        <v>0.9586138129234314</v>
+        <v>2.0605149269104</v>
       </c>
       <c r="ES2">
-        <v>-7.751662731170654</v>
+        <v>-8.684206962585449</v>
       </c>
       <c r="ET2">
-        <v>-3.666385650634766</v>
+        <v>-3.745678424835205</v>
       </c>
       <c r="EU2">
-        <v>-8.429945945739746</v>
+        <v>-8.167235374450684</v>
       </c>
       <c r="EV2">
-        <v>-4.019749641418457</v>
+        <v>-3.646655797958374</v>
       </c>
       <c r="EW2">
-        <v>-3.13697361946106</v>
+        <v>-1.865013599395752</v>
       </c>
       <c r="EX2">
-        <v>-7.303247928619385</v>
+        <v>-6.512368202209473</v>
       </c>
       <c r="EY2">
-        <v>1.546432495117188</v>
+        <v>1.858969211578369</v>
       </c>
       <c r="EZ2">
-        <v>-0.2396920472383499</v>
+        <v>0.394988626241684</v>
       </c>
       <c r="FA2">
-        <v>1.330034613609314</v>
+        <v>0.2075110971927643</v>
       </c>
       <c r="FB2">
-        <v>2.178464651107788</v>
+        <v>2.304197311401367</v>
       </c>
       <c r="FC2">
-        <v>-8.212350845336914</v>
+        <v>-9.215256690979004</v>
       </c>
       <c r="FD2">
-        <v>0.6529855728149414</v>
+        <v>-0.006829726975411177</v>
       </c>
       <c r="FE2">
-        <v>5.690391063690186</v>
+        <v>6.301861763000488</v>
       </c>
       <c r="FF2">
-        <v>-21.32466506958008</v>
+        <v>-20.85569190979004</v>
       </c>
       <c r="FG2">
-        <v>-4.944358825683594</v>
+        <v>-4.678393363952637</v>
       </c>
       <c r="FH2">
-        <v>2.129559755325317</v>
+        <v>2.590361356735229</v>
       </c>
       <c r="FI2">
-        <v>-2.844051837921143</v>
+        <v>-2.547580480575562</v>
       </c>
       <c r="FJ2">
-        <v>8.680707931518555</v>
+        <v>8.171462059020996</v>
       </c>
       <c r="FK2">
-        <v>2.703747272491455</v>
+        <v>3.378808259963989</v>
       </c>
       <c r="FL2">
-        <v>-4.016122341156006</v>
+        <v>-4.091873645782471</v>
       </c>
       <c r="FM2">
-        <v>2.512820959091187</v>
+        <v>1.754055619239807</v>
       </c>
       <c r="FN2">
-        <v>13.17008018493652</v>
+        <v>12.03328800201416</v>
       </c>
       <c r="FO2">
-        <v>-1.226069092750549</v>
+        <v>-2.52674126625061</v>
       </c>
       <c r="FP2">
-        <v>3.666617393493652</v>
+        <v>3.23518180847168</v>
       </c>
       <c r="FQ2">
-        <v>-1.613766193389893</v>
+        <v>-1.217631936073303</v>
       </c>
       <c r="FR2">
-        <v>-0.1860850602388382</v>
+        <v>-0.09276015311479568</v>
       </c>
       <c r="FS2">
-        <v>2.491997003555298</v>
+        <v>2.38422417640686</v>
       </c>
       <c r="FT2">
-        <v>-0.2438759654760361</v>
+        <v>-0.3412377238273621</v>
       </c>
       <c r="FU2">
-        <v>-2.924281597137451</v>
+        <v>-2.393060684204102</v>
       </c>
       <c r="FV2">
-        <v>-0.1362988501787186</v>
+        <v>0.3812422156333923</v>
       </c>
       <c r="FW2">
-        <v>8.423480033874512</v>
+        <v>9.244738578796387</v>
       </c>
       <c r="FX2">
-        <v>-1.042394876480103</v>
+        <v>-0.7963614463806152</v>
       </c>
       <c r="FY2">
-        <v>-1.740713119506836</v>
+        <v>-0.6332534551620483</v>
       </c>
       <c r="FZ2">
-        <v>-1.385411620140076</v>
+        <v>-0.6518489718437195</v>
       </c>
       <c r="GA2">
-        <v>-5.478911399841309</v>
+        <v>-5.764437198638916</v>
       </c>
       <c r="GB2">
-        <v>0.1860038787126541</v>
+        <v>0.6216625571250916</v>
       </c>
       <c r="GC2">
-        <v>-7.555890560150146</v>
+        <v>-7.012703418731689</v>
       </c>
       <c r="GD2">
-        <v>-4.906118869781494</v>
+        <v>-2.611569881439209</v>
       </c>
       <c r="GE2">
-        <v>0.2761456668376923</v>
+        <v>0.7343415021896362</v>
       </c>
       <c r="GF2">
-        <v>-1.531649708747864</v>
+        <v>-0.9989827275276184</v>
       </c>
       <c r="GG2">
-        <v>-9.57656192779541</v>
+        <v>-10.37895584106445</v>
       </c>
       <c r="GH2">
-        <v>1.533677220344543</v>
+        <v>1.698208689689636</v>
       </c>
       <c r="GI2">
-        <v>-0.4769326746463776</v>
+        <v>0.6099861860275269</v>
       </c>
       <c r="GJ2">
-        <v>-0.7591646313667297</v>
+        <v>-0.230633407831192</v>
       </c>
       <c r="GK2">
-        <v>-12.44766330718994</v>
+        <v>-12.20145511627197</v>
       </c>
       <c r="GL2">
-        <v>11.80662250518799</v>
+        <v>10.55798530578613</v>
       </c>
       <c r="GM2">
-        <v>-2.208166599273682</v>
+        <v>-4.026122570037842</v>
       </c>
       <c r="GN2">
-        <v>-1.362062573432922</v>
+        <v>-2.148041963577271</v>
       </c>
       <c r="GO2">
-        <v>-11.96343803405762</v>
+        <v>-13.88246822357178</v>
       </c>
       <c r="GP2">
-        <v>-0.5333361029624939</v>
+        <v>-0.3302469849586487</v>
       </c>
       <c r="GQ2">
-        <v>2.354681491851807</v>
+        <v>2.316017627716064</v>
       </c>
       <c r="GR2">
-        <v>0.1055291816592216</v>
+        <v>-1.152435302734375</v>
       </c>
       <c r="GS2">
-        <v>3.278550624847412</v>
+        <v>3.868629932403564</v>
       </c>
       <c r="GT2">
-        <v>1.903839468955994</v>
+        <v>1.465745687484741</v>
       </c>
       <c r="GU2">
-        <v>2.665212869644165</v>
+        <v>2.314625978469849</v>
       </c>
       <c r="GV2">
-        <v>-0.249969556927681</v>
+        <v>-1.098334312438965</v>
       </c>
       <c r="GW2">
-        <v>-2.564123868942261</v>
+        <v>-1.546932339668274</v>
       </c>
       <c r="GX2">
-        <v>-1.488260269165039</v>
+        <v>-0.9097268581390381</v>
       </c>
       <c r="GY2">
-        <v>-2.121741533279419</v>
+        <v>-1.75881814956665</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Commodities.xlsx
+++ b/static/Models/Classification/Equation/Commodities.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.170255184173584</v>
+        <v>2.852435827255249</v>
       </c>
       <c r="C2" t="n">
-        <v>-3.266008853912354</v>
+        <v>-2.638182401657104</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.069013118743896</v>
+        <v>-6.419115543365479</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.160799264907837</v>
+        <v>-3.752042293548584</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1661061495542526</v>
+        <v>0.7987919449806213</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.563825130462646</v>
+        <v>-3.900255441665649</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.491330146789551</v>
+        <v>-2.067337036132812</v>
       </c>
       <c r="I2" t="n">
-        <v>1.518341541290283</v>
+        <v>2.245608568191528</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5138339996337891</v>
+        <v>1.294610142707825</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3023804724216461</v>
+        <v>0.7493796944618225</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.442798852920532</v>
+        <v>-1.786070466041565</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.426356077194214</v>
+        <v>-1.894072651863098</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3026182353496552</v>
+        <v>0.9486700296401978</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9783380031585693</v>
+        <v>0.5836045145988464</v>
       </c>
       <c r="P2" t="n">
-        <v>0.9890021681785583</v>
+        <v>-0.03055923245847225</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.125542640686035</v>
+        <v>8.768282890319824</v>
       </c>
       <c r="R2" t="n">
-        <v>2.105350494384766</v>
+        <v>2.786609888076782</v>
       </c>
       <c r="S2" t="n">
-        <v>-10.14416885375977</v>
+        <v>-10.63143062591553</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.906250238418579</v>
+        <v>-2.562775373458862</v>
       </c>
       <c r="U2" t="n">
-        <v>-11.97340774536133</v>
+        <v>-11.26276874542236</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.604446887969971</v>
+        <v>-2.846918821334839</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.739397525787354</v>
+        <v>-4.045979976654053</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3264786601066589</v>
+        <v>1.06026303768158</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6680608987808228</v>
+        <v>-0.04542269557714462</v>
       </c>
       <c r="Z2" t="n">
-        <v>-21.48675155639648</v>
+        <v>-21.99161911010742</v>
       </c>
       <c r="AA2" t="n">
-        <v>-2.932143688201904</v>
+        <v>-3.51043963432312</v>
       </c>
       <c r="AB2" t="n">
-        <v>-8.306962966918945</v>
+        <v>-8.997703552246094</v>
       </c>
       <c r="AC2" t="n">
-        <v>-12.36494255065918</v>
+        <v>-11.72916412353516</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.734375476837158</v>
+        <v>-1.192474603652954</v>
       </c>
       <c r="AE2" t="n">
-        <v>8.082136154174805</v>
+        <v>7.268316745758057</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.286646246910095</v>
+        <v>-1.914685845375061</v>
       </c>
       <c r="AG2" t="n">
-        <v>-23.65265464782715</v>
+        <v>-22.8573169708252</v>
       </c>
       <c r="AH2" t="n">
-        <v>-18.64018058776855</v>
+        <v>-17.96745300292969</v>
       </c>
       <c r="AI2" t="n">
-        <v>-8.10645866394043</v>
+        <v>-8.409443855285645</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1.803998112678528</v>
+        <v>0.8978691697120667</v>
       </c>
       <c r="AK2" t="n">
-        <v>-1.487941145896912</v>
+        <v>-2.205848693847656</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.123143672943115</v>
+        <v>3.747517824172974</v>
       </c>
       <c r="AM2" t="n">
-        <v>-4.482888221740723</v>
+        <v>-5.213486194610596</v>
       </c>
       <c r="AN2" t="n">
-        <v>-7.28587532043457</v>
+        <v>-7.925753116607666</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.590942025184631</v>
+        <v>2.120246648788452</v>
       </c>
       <c r="AP2" t="n">
-        <v>-9.416634559631348</v>
+        <v>-10.02091884613037</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.8476631045341492</v>
+        <v>1.447277665138245</v>
       </c>
       <c r="AR2" t="n">
-        <v>-1.716811895370483</v>
+        <v>-0.9664458632469177</v>
       </c>
       <c r="AS2" t="n">
-        <v>-7.449335098266602</v>
+        <v>-8.05283260345459</v>
       </c>
       <c r="AT2" t="n">
-        <v>5.54432201385498</v>
+        <v>4.994290351867676</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.6449640989303589</v>
+        <v>-0.0737188383936882</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.835639953613281</v>
+        <v>3.217221260070801</v>
       </c>
       <c r="AW2" t="n">
-        <v>-7.624961853027344</v>
+        <v>-7.175073623657227</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.834688901901245</v>
+        <v>3.315707683563232</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.8299684524536133</v>
+        <v>1.594900369644165</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.669398069381714</v>
+        <v>-2.769255876541138</v>
       </c>
       <c r="BA2" t="n">
-        <v>11.93807029724121</v>
+        <v>11.79722499847412</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.001498515717685223</v>
+        <v>0.6363171935081482</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.522982239723206</v>
+        <v>-0.8138811588287354</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.724860906600952</v>
+        <v>-1.284306645393372</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.9118101596832275</v>
+        <v>0.3206334114074707</v>
       </c>
       <c r="BF2" t="n">
-        <v>-23.9798755645752</v>
+        <v>-23.34027290344238</v>
       </c>
       <c r="BG2" t="n">
-        <v>-1.232443928718567</v>
+        <v>-0.5773593783378601</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.09825839102268219</v>
+        <v>0.2598985135555267</v>
       </c>
       <c r="BI2" t="n">
-        <v>12.79549026489258</v>
+        <v>12.25518798828125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-3.465200662612915</v>
+        <v>-3.052457094192505</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0.4766514897346497</v>
+        <v>-1.190707921981812</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.557918787002563</v>
+        <v>4.253631114959717</v>
       </c>
       <c r="BM2" t="n">
-        <v>3.335590362548828</v>
+        <v>2.774359226226807</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.7728615999221802</v>
+        <v>-0.1344306319952011</v>
       </c>
       <c r="BO2" t="n">
-        <v>-2.532660245895386</v>
+        <v>-1.951280474662781</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.592684745788574</v>
+        <v>-2.854745388031006</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-16.86160850524902</v>
+        <v>-18.03162956237793</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.5556640028953552</v>
+        <v>0.04459407553076744</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.009568987414240837</v>
+        <v>-0.1520815491676331</v>
       </c>
       <c r="BT2" t="n">
-        <v>-0.07809561491012573</v>
+        <v>0.3549025356769562</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.2331987321376801</v>
+        <v>0.4077767133712769</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1.990066885948181</v>
+        <v>-1.901371717453003</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.9486636519432068</v>
+        <v>1.126391768455505</v>
       </c>
       <c r="BX2" t="n">
-        <v>-10.38724136352539</v>
+        <v>-9.651919364929199</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.532809853553772</v>
+        <v>-1.194983124732971</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.350016832351685</v>
+        <v>3.114671468734741</v>
       </c>
       <c r="CA2" t="n">
-        <v>-15.62386035919189</v>
+        <v>-15.20680904388428</v>
       </c>
       <c r="CB2" t="n">
-        <v>-18.42507553100586</v>
+        <v>-17.89051055908203</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.8512431383132935</v>
+        <v>1.526468873023987</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.057472229003906</v>
+        <v>0.4138879477977753</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.263733148574829</v>
+        <v>-1.711521983146667</v>
       </c>
       <c r="CF2" t="n">
-        <v>-16.38672065734863</v>
+        <v>-15.73067188262939</v>
       </c>
       <c r="CG2" t="n">
-        <v>-5.026927471160889</v>
+        <v>-4.389670372009277</v>
       </c>
       <c r="CH2" t="n">
-        <v>-22.3896484375</v>
+        <v>-21.6741771697998</v>
       </c>
       <c r="CI2" t="n">
-        <v>-1.207490921020508</v>
+        <v>-0.5413108468055725</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-6.632392406463623</v>
+        <v>-5.962065696716309</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.841959238052368</v>
+        <v>-1.734850883483887</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.749597311019897</v>
+        <v>-1.083149194717407</v>
       </c>
       <c r="CM2" t="n">
-        <v>-5.789795398712158</v>
+        <v>-6.463683605194092</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.124896764755249</v>
+        <v>0.3157593011856079</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.703856945037842</v>
+        <v>1.045422315597534</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.926977634429932</v>
+        <v>8.580342292785645</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-6.04494047164917</v>
+        <v>-6.42592716217041</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.394547462463379</v>
+        <v>1.046573400497437</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.5463434457778931</v>
+        <v>-1.318626999855042</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.453846275806427</v>
+        <v>1.113678097724915</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.414434015750885</v>
+        <v>-0.2104252427816391</v>
       </c>
       <c r="CV2" t="n">
-        <v>-2.489907741546631</v>
+        <v>-1.777940154075623</v>
       </c>
       <c r="CW2" t="n">
-        <v>-4.261119365692139</v>
+        <v>-4.850510597229004</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.08138321340084076</v>
+        <v>-0.5454263687133789</v>
       </c>
       <c r="CY2" t="n">
-        <v>-14.28599548339844</v>
+        <v>-14.06755542755127</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.6704530715942383</v>
+        <v>-0.4245578646659851</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.998921155929565</v>
+        <v>-1.352696180343628</v>
       </c>
       <c r="DB2" t="n">
-        <v>-3.143065452575684</v>
+        <v>-2.564709901809692</v>
       </c>
       <c r="DC2" t="n">
-        <v>-2.463689804077148</v>
+        <v>-1.960215091705322</v>
       </c>
       <c r="DD2" t="n">
-        <v>-21.15207290649414</v>
+        <v>-20.44543838500977</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.341895580291748</v>
+        <v>0.5839225053787231</v>
       </c>
       <c r="DF2" t="n">
-        <v>9.019661903381348</v>
+        <v>9.36966609954834</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.6709720492362976</v>
+        <v>-0.04730330780148506</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.4203876852989197</v>
+        <v>1.240262985229492</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.3141190111637115</v>
+        <v>0.9781055450439453</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-15.4614143371582</v>
+        <v>-14.80152034759521</v>
       </c>
       <c r="DK2" t="n">
-        <v>-7.054200649261475</v>
+        <v>-6.495047569274902</v>
       </c>
       <c r="DL2" t="n">
-        <v>-7.350650787353516</v>
+        <v>-7.249383926391602</v>
       </c>
       <c r="DM2" t="n">
-        <v>5.72614049911499</v>
+        <v>6.400120735168457</v>
       </c>
       <c r="DN2" t="n">
-        <v>-1.08346962928772</v>
+        <v>-0.4574929177761078</v>
       </c>
       <c r="DO2" t="n">
-        <v>-8.461282730102539</v>
+        <v>-9.158054351806641</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.34842324256897</v>
+        <v>2.03987455368042</v>
       </c>
       <c r="DQ2" t="n">
-        <v>3.465126991271973</v>
+        <v>4.148017406463623</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.392031729221344</v>
+        <v>0.3133556544780731</v>
       </c>
       <c r="DS2" t="n">
-        <v>-3.174933433532715</v>
+        <v>-2.580231904983521</v>
       </c>
       <c r="DT2" t="n">
-        <v>3.253251075744629</v>
+        <v>3.895114183425903</v>
       </c>
       <c r="DU2" t="n">
-        <v>-9.927580833435059</v>
+        <v>-9.214731216430664</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.3515998125076294</v>
+        <v>-0.4040776491165161</v>
       </c>
       <c r="DW2" t="n">
-        <v>-1.252533555030823</v>
+        <v>-0.5057069659233093</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.3220877051353455</v>
+        <v>0.3326476216316223</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.092915058135986</v>
+        <v>4.758472919464111</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.9568871855735779</v>
+        <v>-0.6580036282539368</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.8420577049255371</v>
+        <v>-0.4226176738739014</v>
       </c>
       <c r="EB2" t="n">
-        <v>-1.308537602424622</v>
+        <v>-0.627026379108429</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.315240025520325</v>
+        <v>1.789113402366638</v>
       </c>
       <c r="ED2" t="n">
-        <v>-3.326761484146118</v>
+        <v>-3.952502727508545</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.046639204025269</v>
+        <v>1.61983048915863</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.12139880657196</v>
+        <v>1.899700880050659</v>
       </c>
       <c r="EG2" t="n">
-        <v>9.60120964050293</v>
+        <v>8.911396980285645</v>
       </c>
       <c r="EH2" t="n">
-        <v>-5.272148609161377</v>
+        <v>-5.709623336791992</v>
       </c>
       <c r="EI2" t="n">
-        <v>-1.091423869132996</v>
+        <v>-0.3600844144821167</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-4.854629993438721</v>
+        <v>-4.156501770019531</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.8725928068161011</v>
+        <v>-0.6868866682052612</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.779518961906433</v>
+        <v>-2.370646476745605</v>
       </c>
       <c r="EM2" t="n">
-        <v>-7.567614078521729</v>
+        <v>-8.123534202575684</v>
       </c>
       <c r="EN2" t="n">
-        <v>-8.110316276550293</v>
+        <v>-8.795870780944824</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.093743205070496</v>
+        <v>0.4148002862930298</v>
       </c>
       <c r="EP2" t="n">
-        <v>-5.903167247772217</v>
+        <v>-6.518258094787598</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-13.46525859832764</v>
+        <v>-12.74446678161621</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.32765781879425</v>
+        <v>1.96671462059021</v>
       </c>
       <c r="ES2" t="n">
-        <v>-7.946578502655029</v>
+        <v>-7.236973285675049</v>
       </c>
       <c r="ET2" t="n">
-        <v>-4.413530826568604</v>
+        <v>-5.238213062286377</v>
       </c>
       <c r="EU2" t="n">
-        <v>-7.593794345855713</v>
+        <v>-6.982944011688232</v>
       </c>
       <c r="EV2" t="n">
-        <v>-4.259253978729248</v>
+        <v>-3.661929130554199</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.23252546787262</v>
+        <v>-0.5773584842681885</v>
       </c>
       <c r="EX2" t="n">
-        <v>-7.25825023651123</v>
+        <v>-7.126434803009033</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.45095419883728</v>
+        <v>1.98137640953064</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.01364672090858221</v>
+        <v>0.697087824344635</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.3116648197174072</v>
+        <v>-0.9455606937408447</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.951140403747559</v>
+        <v>1.182292699813843</v>
       </c>
       <c r="FC2" t="n">
-        <v>-10.04374027252197</v>
+        <v>-9.519055366516113</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.1191573366522789</v>
+        <v>-0.6103267073631287</v>
       </c>
       <c r="FE2" t="n">
-        <v>6.958883762359619</v>
+        <v>7.568328380584717</v>
       </c>
       <c r="FF2" t="n">
-        <v>-20.36462020874023</v>
+        <v>-20.97160911560059</v>
       </c>
       <c r="FG2" t="n">
-        <v>-5.379715442657471</v>
+        <v>-4.732454299926758</v>
       </c>
       <c r="FH2" t="n">
-        <v>2.366087436676025</v>
+        <v>3.037274837493896</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.963141202926636</v>
+        <v>-1.313993215560913</v>
       </c>
       <c r="FJ2" t="n">
-        <v>7.522186756134033</v>
+        <v>6.875112533569336</v>
       </c>
       <c r="FK2" t="n">
-        <v>2.627942323684692</v>
+        <v>3.383432388305664</v>
       </c>
       <c r="FL2" t="n">
-        <v>-3.275939464569092</v>
+        <v>-3.861249446868896</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.488842248916626</v>
+        <v>1.855695843696594</v>
       </c>
       <c r="FN2" t="n">
-        <v>12.50895404815674</v>
+        <v>13.19562911987305</v>
       </c>
       <c r="FO2" t="n">
-        <v>-3.488691329956055</v>
+        <v>-2.83837103843689</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.699038982391357</v>
+        <v>2.067720413208008</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-1.444926619529724</v>
+        <v>-2.06806468963623</v>
       </c>
       <c r="FR2" t="n">
-        <v>-0.5114648342132568</v>
+        <v>-1.267241716384888</v>
       </c>
       <c r="FS2" t="n">
-        <v>3.203097343444824</v>
+        <v>3.878802299499512</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.7122085094451904</v>
+        <v>-1.446003198623657</v>
       </c>
       <c r="FU2" t="n">
-        <v>-2.580995321273804</v>
+        <v>-3.15098762512207</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.01261967048048973</v>
+        <v>0.4854219853878021</v>
       </c>
       <c r="FW2" t="n">
-        <v>8.776849746704102</v>
+        <v>9.532187461853027</v>
       </c>
       <c r="FX2" t="n">
-        <v>-1.088368773460388</v>
+        <v>-0.4090283215045929</v>
       </c>
       <c r="FY2" t="n">
-        <v>-0.2984741032123566</v>
+        <v>-1.128058552742004</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.2011821717023849</v>
+        <v>0.570884108543396</v>
       </c>
       <c r="GA2" t="n">
-        <v>-5.364723682403564</v>
+        <v>-5.878954410552979</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.357702374458313</v>
+        <v>1.865258574485779</v>
       </c>
       <c r="GC2" t="n">
-        <v>-6.379532337188721</v>
+        <v>-6.05783748626709</v>
       </c>
       <c r="GD2" t="n">
-        <v>-1.809894800186157</v>
+        <v>-2.51375412940979</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.364011287689209</v>
+        <v>-0.2651073634624481</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.1859917640686035</v>
+        <v>-0.1583289206027985</v>
       </c>
       <c r="GG2" t="n">
-        <v>-10.27911758422852</v>
+        <v>-10.40154552459717</v>
       </c>
       <c r="GH2" t="n">
-        <v>2.458110094070435</v>
+        <v>1.793954253196716</v>
       </c>
       <c r="GI2" t="n">
-        <v>1.528213143348694</v>
+        <v>0.7969558238983154</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.4066012799739838</v>
+        <v>1.035600185394287</v>
       </c>
       <c r="GK2" t="n">
-        <v>-12.31718254089355</v>
+        <v>-11.4935359954834</v>
       </c>
       <c r="GL2" t="n">
-        <v>11.19542407989502</v>
+        <v>11.49216079711914</v>
       </c>
       <c r="GM2" t="n">
-        <v>-4.522122859954834</v>
+        <v>-3.856070518493652</v>
       </c>
       <c r="GN2" t="n">
-        <v>-1.443445444107056</v>
+        <v>-2.035939931869507</v>
       </c>
       <c r="GO2" t="n">
-        <v>-14.55846691131592</v>
+        <v>-13.92813873291016</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.6269293427467346</v>
+        <v>0.1125533580780029</v>
       </c>
       <c r="GQ2" t="n">
-        <v>1.614140391349792</v>
+        <v>2.28328275680542</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.948511362075806</v>
+        <v>-1.333939552307129</v>
       </c>
       <c r="GS2" t="n">
-        <v>3.178590059280396</v>
+        <v>3.964203119277954</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.9581077694892883</v>
+        <v>0.3413679897785187</v>
       </c>
       <c r="GU2" t="n">
-        <v>1.421272754669189</v>
+        <v>0.4260002374649048</v>
       </c>
       <c r="GV2" t="n">
-        <v>-0.4619594812393188</v>
+        <v>-1.056565046310425</v>
       </c>
       <c r="GW2" t="n">
-        <v>-1.061180233955383</v>
+        <v>-1.6775141954422</v>
       </c>
       <c r="GX2" t="n">
-        <v>-1.319783210754395</v>
+        <v>-2.032173633575439</v>
       </c>
       <c r="GY2" t="n">
-        <v>-2.154533863067627</v>
+        <v>-3.013050556182861</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Commodities.xlsx
+++ b/static/Models/Classification/Equation/Commodities.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.852435827255249</v>
+        <v>2.263066053390503</v>
       </c>
       <c r="C2" t="n">
-        <v>-2.638182401657104</v>
+        <v>-2.06994104385376</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.419115543365479</v>
+        <v>-6.721115112304688</v>
       </c>
       <c r="E2" t="n">
-        <v>-3.752042293548584</v>
+        <v>-4.697052478790283</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7987919449806213</v>
+        <v>1.18883740901947</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.900255441665649</v>
+        <v>-3.384643316268921</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.067337036132812</v>
+        <v>-2.477552890777588</v>
       </c>
       <c r="I2" t="n">
-        <v>2.245608568191528</v>
+        <v>1.991927266120911</v>
       </c>
       <c r="J2" t="n">
-        <v>1.294610142707825</v>
+        <v>1.797447681427002</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7493796944618225</v>
+        <v>1.306133627891541</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.786070466041565</v>
+        <v>-0.9999889135360718</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.894072651863098</v>
+        <v>-1.20572555065155</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9486700296401978</v>
+        <v>1.666383385658264</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5836045145988464</v>
+        <v>1.125782132148743</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.03055923245847225</v>
+        <v>-0.6093872785568237</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.768282890319824</v>
+        <v>8.074910163879395</v>
       </c>
       <c r="R2" t="n">
-        <v>2.786609888076782</v>
+        <v>2.012691736221313</v>
       </c>
       <c r="S2" t="n">
-        <v>-10.63143062591553</v>
+        <v>-11.16969776153564</v>
       </c>
       <c r="T2" t="n">
-        <v>-2.562775373458862</v>
+        <v>-2.232914686203003</v>
       </c>
       <c r="U2" t="n">
-        <v>-11.26276874542236</v>
+        <v>-10.52076053619385</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.846918821334839</v>
+        <v>-2.453227281570435</v>
       </c>
       <c r="W2" t="n">
-        <v>-4.045979976654053</v>
+        <v>-3.691287279129028</v>
       </c>
       <c r="X2" t="n">
-        <v>1.06026303768158</v>
+        <v>0.2983984053134918</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.04542269557714462</v>
+        <v>0.6866463422775269</v>
       </c>
       <c r="Z2" t="n">
-        <v>-21.99161911010742</v>
+        <v>-21.12616539001465</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.51043963432312</v>
+        <v>-2.879082918167114</v>
       </c>
       <c r="AB2" t="n">
-        <v>-8.997703552246094</v>
+        <v>-9.761350631713867</v>
       </c>
       <c r="AC2" t="n">
-        <v>-11.72916412353516</v>
+        <v>-11.21023845672607</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.192474603652954</v>
+        <v>-0.9288527369499207</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.268316745758057</v>
+        <v>7.582411766052246</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.914685845375061</v>
+        <v>-2.690080165863037</v>
       </c>
       <c r="AG2" t="n">
-        <v>-22.8573169708252</v>
+        <v>-23.23814582824707</v>
       </c>
       <c r="AH2" t="n">
-        <v>-17.96745300292969</v>
+        <v>-17.42879104614258</v>
       </c>
       <c r="AI2" t="n">
-        <v>-8.409443855285645</v>
+        <v>-8.932903289794922</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.8978691697120667</v>
+        <v>1.115411400794983</v>
       </c>
       <c r="AK2" t="n">
-        <v>-2.205848693847656</v>
+        <v>-1.639528632164001</v>
       </c>
       <c r="AL2" t="n">
-        <v>3.747517824172974</v>
+        <v>4.192417621612549</v>
       </c>
       <c r="AM2" t="n">
-        <v>-5.213486194610596</v>
+        <v>-5.985395908355713</v>
       </c>
       <c r="AN2" t="n">
-        <v>-7.925753116607666</v>
+        <v>-8.592615127563477</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.120246648788452</v>
+        <v>1.844948768615723</v>
       </c>
       <c r="AP2" t="n">
-        <v>-10.02091884613037</v>
+        <v>-10.7848596572876</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.447277665138245</v>
+        <v>2.04320764541626</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.9664458632469177</v>
+        <v>-1.62050724029541</v>
       </c>
       <c r="AS2" t="n">
-        <v>-8.05283260345459</v>
+        <v>-8.752062797546387</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.994290351867676</v>
+        <v>4.337948322296143</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.0737188383936882</v>
+        <v>-0.6166956424713135</v>
       </c>
       <c r="AV2" t="n">
-        <v>3.217221260070801</v>
+        <v>2.535578727722168</v>
       </c>
       <c r="AW2" t="n">
-        <v>-7.175073623657227</v>
+        <v>-6.841096878051758</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.315707683563232</v>
+        <v>3.048506021499634</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.594900369644165</v>
+        <v>1.963543176651001</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.769255876541138</v>
+        <v>-3.36635947227478</v>
       </c>
       <c r="BA2" t="n">
-        <v>11.79722499847412</v>
+        <v>10.81792163848877</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.6363171935081482</v>
+        <v>-0.3208241760730743</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.8138811588287354</v>
+        <v>0.06483133882284164</v>
       </c>
       <c r="BD2" t="n">
-        <v>-1.284306645393372</v>
+        <v>-1.06484055519104</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.3206334114074707</v>
+        <v>-0.1282539814710617</v>
       </c>
       <c r="BF2" t="n">
-        <v>-23.34027290344238</v>
+        <v>-24.42966461181641</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.5773593783378601</v>
+        <v>-0.9879043698310852</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.2598985135555267</v>
+        <v>-0.4598912000656128</v>
       </c>
       <c r="BI2" t="n">
-        <v>12.25518798828125</v>
+        <v>12.80272769927979</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-3.052457094192505</v>
+        <v>-3.452776670455933</v>
       </c>
       <c r="BK2" t="n">
-        <v>-1.190707921981812</v>
+        <v>-1.700018048286438</v>
       </c>
       <c r="BL2" t="n">
-        <v>4.253631114959717</v>
+        <v>3.664755582809448</v>
       </c>
       <c r="BM2" t="n">
-        <v>2.774359226226807</v>
+        <v>2.125212669372559</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.1344306319952011</v>
+        <v>0.2939262688159943</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.951280474662781</v>
+        <v>-2.568231582641602</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.854745388031006</v>
+        <v>-2.184011936187744</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-18.03162956237793</v>
+        <v>-18.00647926330566</v>
       </c>
       <c r="BR2" t="n">
-        <v>0.04459407553076744</v>
+        <v>-0.5449602603912354</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.1520815491676331</v>
+        <v>-0.4011933207511902</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.3549025356769562</v>
+        <v>0.9141849279403687</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.4077767133712769</v>
+        <v>0.2649585902690887</v>
       </c>
       <c r="BV2" t="n">
-        <v>-1.901371717453003</v>
+        <v>-1.304633498191833</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.126391768455505</v>
+        <v>0.2280081361532211</v>
       </c>
       <c r="BX2" t="n">
-        <v>-9.651919364929199</v>
+        <v>-9.088607788085938</v>
       </c>
       <c r="BY2" t="n">
-        <v>-1.194983124732971</v>
+        <v>-0.3254202902317047</v>
       </c>
       <c r="BZ2" t="n">
-        <v>3.114671468734741</v>
+        <v>3.184626340866089</v>
       </c>
       <c r="CA2" t="n">
-        <v>-15.20680904388428</v>
+        <v>-15.65136337280273</v>
       </c>
       <c r="CB2" t="n">
-        <v>-17.89051055908203</v>
+        <v>-18.35569953918457</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.526468873023987</v>
+        <v>0.7268722057342529</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.4138879477977753</v>
+        <v>-0.2510481774806976</v>
       </c>
       <c r="CE2" t="n">
-        <v>-1.711521983146667</v>
+        <v>-2.186335802078247</v>
       </c>
       <c r="CF2" t="n">
-        <v>-15.73067188262939</v>
+        <v>-15.15327930450439</v>
       </c>
       <c r="CG2" t="n">
-        <v>-4.389670372009277</v>
+        <v>-4.786288261413574</v>
       </c>
       <c r="CH2" t="n">
-        <v>-21.6741771697998</v>
+        <v>-22.16389465332031</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.5413108468055725</v>
+        <v>-0.2422391176223755</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-5.962065696716309</v>
+        <v>-6.275552749633789</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.734850883483887</v>
+        <v>-1.808034539222717</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.083149194717407</v>
+        <v>-1.452366352081299</v>
       </c>
       <c r="CM2" t="n">
-        <v>-6.463683605194092</v>
+        <v>-7.012901782989502</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.3157593011856079</v>
+        <v>0.910006582736969</v>
       </c>
       <c r="CO2" t="n">
-        <v>1.045422315597534</v>
+        <v>1.437407970428467</v>
       </c>
       <c r="CP2" t="n">
-        <v>8.580342292785645</v>
+        <v>7.833240985870361</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-6.42592716217041</v>
+        <v>-7.238471984863281</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.046573400497437</v>
+        <v>2.015738010406494</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.318626999855042</v>
+        <v>-1.095272064208984</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.113678097724915</v>
+        <v>0.3493141233921051</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.2104252427816391</v>
+        <v>-0.9327024221420288</v>
       </c>
       <c r="CV2" t="n">
-        <v>-1.777940154075623</v>
+        <v>-2.357893228530884</v>
       </c>
       <c r="CW2" t="n">
-        <v>-4.850510597229004</v>
+        <v>-5.921270847320557</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.5454263687133789</v>
+        <v>0.1468600630760193</v>
       </c>
       <c r="CY2" t="n">
-        <v>-14.06755542755127</v>
+        <v>-14.5076904296875</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.4245578646659851</v>
+        <v>0.2195528447628021</v>
       </c>
       <c r="DA2" t="n">
-        <v>-1.352696180343628</v>
+        <v>-1.812581181526184</v>
       </c>
       <c r="DB2" t="n">
-        <v>-2.564709901809692</v>
+        <v>-2.98583197593689</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.960215091705322</v>
+        <v>-1.291842937469482</v>
       </c>
       <c r="DD2" t="n">
-        <v>-20.44543838500977</v>
+        <v>-19.87970352172852</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.5839225053787231</v>
+        <v>0.8932295441627502</v>
       </c>
       <c r="DF2" t="n">
-        <v>9.36966609954834</v>
+        <v>8.660783767700195</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.04730330780148506</v>
+        <v>-0.4863191843032837</v>
       </c>
       <c r="DH2" t="n">
-        <v>1.240262985229492</v>
+        <v>1.938219308853149</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.9781055450439453</v>
+        <v>0.4023120999336243</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-14.80152034759521</v>
+        <v>-15.31442070007324</v>
       </c>
       <c r="DK2" t="n">
-        <v>-6.495047569274902</v>
+        <v>-6.311539649963379</v>
       </c>
       <c r="DL2" t="n">
-        <v>-7.249383926391602</v>
+        <v>-7.80396556854248</v>
       </c>
       <c r="DM2" t="n">
-        <v>6.400120735168457</v>
+        <v>5.68267822265625</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.4574929177761078</v>
+        <v>-0.8715230822563171</v>
       </c>
       <c r="DO2" t="n">
-        <v>-9.158054351806641</v>
+        <v>-9.991998672485352</v>
       </c>
       <c r="DP2" t="n">
-        <v>2.03987455368042</v>
+        <v>1.449065685272217</v>
       </c>
       <c r="DQ2" t="n">
-        <v>4.148017406463623</v>
+        <v>4.603847503662109</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.3133556544780731</v>
+        <v>-0.4149108231067657</v>
       </c>
       <c r="DS2" t="n">
-        <v>-2.580231904983521</v>
+        <v>-1.814379692077637</v>
       </c>
       <c r="DT2" t="n">
-        <v>3.895114183425903</v>
+        <v>4.402862548828125</v>
       </c>
       <c r="DU2" t="n">
-        <v>-9.214731216430664</v>
+        <v>-9.700712203979492</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.4040776491165161</v>
+        <v>-0.9536392092704773</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.5057069659233093</v>
+        <v>0.1044280678033829</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.3326476216316223</v>
+        <v>-0.1954548507928848</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.758472919464111</v>
+        <v>4.650355339050293</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.6580036282539368</v>
+        <v>-1.106819152832031</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.4226176738739014</v>
+        <v>0.1630098968744278</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0.627026379108429</v>
+        <v>-0.2744896709918976</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.789113402366638</v>
+        <v>2.131278991699219</v>
       </c>
       <c r="ED2" t="n">
-        <v>-3.952502727508545</v>
+        <v>-3.802932739257812</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.61983048915863</v>
+        <v>1.790950417518616</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.899700880050659</v>
+        <v>2.592510223388672</v>
       </c>
       <c r="EG2" t="n">
-        <v>8.911396980285645</v>
+        <v>8.152767181396484</v>
       </c>
       <c r="EH2" t="n">
-        <v>-5.709623336791992</v>
+        <v>-5.129992008209229</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.3600844144821167</v>
+        <v>-0.805472731590271</v>
       </c>
       <c r="EJ2" t="n">
-        <v>-4.156501770019531</v>
+        <v>-4.82157039642334</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.6868866682052612</v>
+        <v>-0.4443061053752899</v>
       </c>
       <c r="EL2" t="n">
-        <v>-2.370646476745605</v>
+        <v>-2.048244953155518</v>
       </c>
       <c r="EM2" t="n">
-        <v>-8.123534202575684</v>
+        <v>-8.98587703704834</v>
       </c>
       <c r="EN2" t="n">
-        <v>-8.795870780944824</v>
+        <v>-9.48338508605957</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.4148002862930298</v>
+        <v>-0.01964694447815418</v>
       </c>
       <c r="EP2" t="n">
-        <v>-6.518258094787598</v>
+        <v>-5.790744304656982</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-12.74446678161621</v>
+        <v>-11.98343753814697</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.96671462059021</v>
+        <v>2.35180926322937</v>
       </c>
       <c r="ES2" t="n">
-        <v>-7.236973285675049</v>
+        <v>-7.711768627166748</v>
       </c>
       <c r="ET2" t="n">
-        <v>-5.238213062286377</v>
+        <v>-6.274311065673828</v>
       </c>
       <c r="EU2" t="n">
-        <v>-6.982944011688232</v>
+        <v>-6.296693325042725</v>
       </c>
       <c r="EV2" t="n">
-        <v>-3.661929130554199</v>
+        <v>-3.308359146118164</v>
       </c>
       <c r="EW2" t="n">
-        <v>-0.5773584842681885</v>
+        <v>-1.082916498184204</v>
       </c>
       <c r="EX2" t="n">
-        <v>-7.126434803009033</v>
+        <v>-6.809521675109863</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.98137640953064</v>
+        <v>2.03247594833374</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.697087824344635</v>
+        <v>0.5369455814361572</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.9455606937408447</v>
+        <v>-0.4039001762866974</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.182292699813843</v>
+        <v>1.608671426773071</v>
       </c>
       <c r="FC2" t="n">
-        <v>-9.519055366516113</v>
+        <v>-8.874255180358887</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.6103267073631287</v>
+        <v>0.04417036101222038</v>
       </c>
       <c r="FE2" t="n">
-        <v>7.568328380584717</v>
+        <v>8.350920677185059</v>
       </c>
       <c r="FF2" t="n">
-        <v>-20.97160911560059</v>
+        <v>-21.72895431518555</v>
       </c>
       <c r="FG2" t="n">
-        <v>-4.732454299926758</v>
+        <v>-3.698757171630859</v>
       </c>
       <c r="FH2" t="n">
-        <v>3.037274837493896</v>
+        <v>2.569759130477905</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.313993215560913</v>
+        <v>-1.229495525360107</v>
       </c>
       <c r="FJ2" t="n">
-        <v>6.875112533569336</v>
+        <v>5.964444160461426</v>
       </c>
       <c r="FK2" t="n">
-        <v>3.383432388305664</v>
+        <v>2.744122505187988</v>
       </c>
       <c r="FL2" t="n">
-        <v>-3.861249446868896</v>
+        <v>-4.820123195648193</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.855695843696594</v>
+        <v>0.9830845594406128</v>
       </c>
       <c r="FN2" t="n">
-        <v>13.19562911987305</v>
+        <v>12.61055183410645</v>
       </c>
       <c r="FO2" t="n">
-        <v>-2.83837103843689</v>
+        <v>-1.963258028030396</v>
       </c>
       <c r="FP2" t="n">
-        <v>2.067720413208008</v>
+        <v>2.130997657775879</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-2.06806468963623</v>
+        <v>-1.698835253715515</v>
       </c>
       <c r="FR2" t="n">
-        <v>-1.267241716384888</v>
+        <v>-0.7990965247154236</v>
       </c>
       <c r="FS2" t="n">
-        <v>3.878802299499512</v>
+        <v>3.181703329086304</v>
       </c>
       <c r="FT2" t="n">
-        <v>-1.446003198623657</v>
+        <v>-1.056663632392883</v>
       </c>
       <c r="FU2" t="n">
-        <v>-3.15098762512207</v>
+        <v>-2.746722221374512</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.4854219853878021</v>
+        <v>0.5223764181137085</v>
       </c>
       <c r="FW2" t="n">
-        <v>9.532187461853027</v>
+        <v>10.13118839263916</v>
       </c>
       <c r="FX2" t="n">
-        <v>-0.4090283215045929</v>
+        <v>-1.488424777984619</v>
       </c>
       <c r="FY2" t="n">
-        <v>-1.128058552742004</v>
+        <v>-1.100176215171814</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.570884108543396</v>
+        <v>-0.2001222670078278</v>
       </c>
       <c r="GA2" t="n">
-        <v>-5.878954410552979</v>
+        <v>-5.382379055023193</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.865258574485779</v>
+        <v>2.579097747802734</v>
       </c>
       <c r="GC2" t="n">
-        <v>-6.05783748626709</v>
+        <v>-6.028439044952393</v>
       </c>
       <c r="GD2" t="n">
-        <v>-2.51375412940979</v>
+        <v>-2.959968090057373</v>
       </c>
       <c r="GE2" t="n">
-        <v>-0.2651073634624481</v>
+        <v>0.001835824572481215</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0.1583289206027985</v>
+        <v>0.4975831806659698</v>
       </c>
       <c r="GG2" t="n">
-        <v>-10.40154552459717</v>
+        <v>-9.735821723937988</v>
       </c>
       <c r="GH2" t="n">
-        <v>1.793954253196716</v>
+        <v>1.068297743797302</v>
       </c>
       <c r="GI2" t="n">
-        <v>0.7969558238983154</v>
+        <v>1.429600715637207</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1.035600185394287</v>
+        <v>0.2699425220489502</v>
       </c>
       <c r="GK2" t="n">
-        <v>-11.4935359954834</v>
+        <v>-10.87448596954346</v>
       </c>
       <c r="GL2" t="n">
-        <v>11.49216079711914</v>
+        <v>11.96874713897705</v>
       </c>
       <c r="GM2" t="n">
-        <v>-3.856070518493652</v>
+        <v>-4.510765552520752</v>
       </c>
       <c r="GN2" t="n">
-        <v>-2.035939931869507</v>
+        <v>-2.8714759349823</v>
       </c>
       <c r="GO2" t="n">
-        <v>-13.92813873291016</v>
+        <v>-13.71135711669922</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.1125533580780029</v>
+        <v>-0.6356662511825562</v>
       </c>
       <c r="GQ2" t="n">
-        <v>2.28328275680542</v>
+        <v>2.622751235961914</v>
       </c>
       <c r="GR2" t="n">
-        <v>-1.333939552307129</v>
+        <v>-0.3424728512763977</v>
       </c>
       <c r="GS2" t="n">
-        <v>3.964203119277954</v>
+        <v>3.396400690078735</v>
       </c>
       <c r="GT2" t="n">
-        <v>0.3413679897785187</v>
+        <v>-0.3040677011013031</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.4260002374649048</v>
+        <v>0.9133070111274719</v>
       </c>
       <c r="GV2" t="n">
-        <v>-1.056565046310425</v>
+        <v>-0.3672048449516296</v>
       </c>
       <c r="GW2" t="n">
-        <v>-1.6775141954422</v>
+        <v>-0.908339262008667</v>
       </c>
       <c r="GX2" t="n">
-        <v>-2.032173633575439</v>
+        <v>-1.68771505355835</v>
       </c>
       <c r="GY2" t="n">
-        <v>-3.013050556182861</v>
+        <v>-3.017895460128784</v>
       </c>
     </row>
   </sheetData>
